--- a/exercises/dennis/exercise_4/Task_4_subgrid_results/res_bus/vm_pu.xlsx
+++ b/exercises/dennis/exercise_4/Task_4_subgrid_results/res_bus/vm_pu.xlsx
@@ -396,7 +396,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.01220493581753</v>
+        <v>1.012204935817628</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -407,7 +407,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.010991028100158</v>
+        <v>1.010991028100147</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -418,7 +418,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.012817933852852</v>
+        <v>1.012817933852757</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -429,7 +429,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.009330950458531</v>
+        <v>1.009330950458727</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.008780383475809</v>
+        <v>1.008780383475794</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -451,7 +451,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.013141014921907</v>
+        <v>1.01314101492194</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -462,7 +462,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.011897402879939</v>
+        <v>1.011897402880057</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -473,7 +473,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.012211990396249</v>
+        <v>1.012211990396122</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -484,7 +484,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.017212088202693</v>
+        <v>1.017212088202596</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -495,7 +495,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.016729011296576</v>
+        <v>1.016729011296528</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -506,7 +506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.013348165127827</v>
+        <v>1.0133481651278</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -517,7 +517,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.019037182411051</v>
+        <v>1.019037182411017</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -528,7 +528,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.015006048369011</v>
+        <v>1.015006048368966</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -539,7 +539,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.018620320446463</v>
+        <v>1.018620320446562</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -550,7 +550,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02159886653939</v>
+        <v>1.021598866539365</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -561,7 +561,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.018316218084425</v>
+        <v>1.018316218084495</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -572,7 +572,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.019091851773686</v>
+        <v>1.019091851773885</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -583,7 +583,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.017004883890676</v>
+        <v>1.017004883890529</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -594,7 +594,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.013953754975548</v>
+        <v>1.01395375497557</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -605,7 +605,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.019646276849746</v>
+        <v>1.019646276849827</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -616,7 +616,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.0187762000329</v>
+        <v>1.01877620003291</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -627,7 +627,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.022629388485324</v>
+        <v>1.022629388485163</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -638,7 +638,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.021519297681285</v>
+        <v>1.02151929768135</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -649,7 +649,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.018367535370123</v>
+        <v>1.018367535370233</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -660,7 +660,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.018147694045337</v>
+        <v>1.018147694045198</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -671,7 +671,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.02002285328666</v>
+        <v>1.02002285328684</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -682,7 +682,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.019038377534104</v>
+        <v>1.019038377534138</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.013212218489958</v>
+        <v>1.013212218489893</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -704,7 +704,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.008398188428544</v>
+        <v>1.008398188428514</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -715,7 +715,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.01872574522963</v>
+        <v>1.018725745229547</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -726,7 +726,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.021745200722677</v>
+        <v>1.021745200722731</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -737,7 +737,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.023220195322668</v>
+        <v>1.023220195322612</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -748,7 +748,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.02239343610776</v>
+        <v>1.022393436107859</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -759,7 +759,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.026460782421716</v>
+        <v>1.026460782421807</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -770,7 +770,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.032939482654878</v>
+        <v>1.032939482654796</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.038994047583816</v>
+        <v>1.038994047583758</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -792,7 +792,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.040130555594422</v>
+        <v>1.040130555594179</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -803,7 +803,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.047246820073646</v>
+        <v>1.047246820073662</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -814,10 +814,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.03696864994403</v>
+        <v>1.036968649943997</v>
       </c>
       <c r="C40">
-        <v>0.99726449869165</v>
+        <v>0.9972644986916237</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -825,10 +825,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.042766972707853</v>
+        <v>1.042766972707937</v>
       </c>
       <c r="C41">
-        <v>0.9981373953724488</v>
+        <v>0.998137395372471</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -836,10 +836,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.048813060761144</v>
+        <v>1.048813060761105</v>
       </c>
       <c r="C42">
-        <v>0.9990170192493241</v>
+        <v>0.999017019249321</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -847,10 +847,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.039735072229319</v>
+        <v>1.03973507216229</v>
       </c>
       <c r="C43">
-        <v>0.9853326709792942</v>
+        <v>0.9853326709523443</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -858,10 +858,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.04993086127204</v>
+        <v>1.049930861272054</v>
       </c>
       <c r="C44">
-        <v>0.9866780889364376</v>
+        <v>0.9866780889364714</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -869,10 +869,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.045836556181347</v>
+        <v>1.045836556181591</v>
       </c>
       <c r="C45">
-        <v>0.986149556156068</v>
+        <v>0.9861495561561179</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -880,10 +880,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.037965845025842</v>
+        <v>1.037965845025675</v>
       </c>
       <c r="C46">
-        <v>0.9729041358077785</v>
+        <v>0.9729041358077353</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -891,10 +891,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.035435921148499</v>
+        <v>1.035435921148165</v>
       </c>
       <c r="C47">
-        <v>0.9725864029214457</v>
+        <v>0.9725864029212982</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -902,10 +902,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.034723377981398</v>
+        <v>1.034723377981213</v>
       </c>
       <c r="C48">
-        <v>0.9724942036677771</v>
+        <v>0.9724942036677425</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -913,10 +913,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.035571835365596</v>
+        <v>1.035571835365575</v>
       </c>
       <c r="C49">
-        <v>0.9726030941199439</v>
+        <v>0.9726030941199461</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -924,10 +924,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.037746831245818</v>
+        <v>1.037746831245681</v>
       </c>
       <c r="C50">
-        <v>0.9728753087232135</v>
+        <v>0.9728753087231856</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -935,10 +935,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.037791634655632</v>
+        <v>1.037791634655669</v>
       </c>
       <c r="C51">
-        <v>0.9728794128446319</v>
+        <v>0.972879412844627</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -946,10 +946,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.028670635124645</v>
+        <v>1.028670635124537</v>
       </c>
       <c r="C52">
-        <v>0.9717071684510525</v>
+        <v>0.971707168450998</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -957,10 +957,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.030394496277693</v>
+        <v>1.030394496277751</v>
       </c>
       <c r="C53">
-        <v>0.971935232749562</v>
+        <v>0.9719352327495652</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -968,10 +968,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.028059730076513</v>
+        <v>1.028059730076768</v>
       </c>
       <c r="C54">
-        <v>0.9716260009561817</v>
+        <v>0.9716260009562435</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -979,10 +979,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.02551956104483</v>
+        <v>1.02551956099935</v>
       </c>
       <c r="C55">
-        <v>0.9712826069964355</v>
+        <v>0.9712826069676356</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -990,10 +990,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.022847496272717</v>
+        <v>1.022847496272825</v>
       </c>
       <c r="C56">
-        <v>0.9709164042957766</v>
+        <v>0.9709164042958359</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1001,10 +1001,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.024582478125849</v>
+        <v>1.024582478125891</v>
       </c>
       <c r="C57">
-        <v>0.9711561774199082</v>
+        <v>0.971156177419927</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1012,10 +1012,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.018826209256849</v>
+        <v>1.018826209256916</v>
       </c>
       <c r="C58">
-        <v>0.9703519581910927</v>
+        <v>0.9703519581910971</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1023,10 +1023,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.018691016644737</v>
+        <v>1.018691016644702</v>
       </c>
       <c r="C59">
-        <v>0.9703334274443287</v>
+        <v>0.9703334274443413</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1034,10 +1034,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.01567233439774</v>
+        <v>1.015672334397784</v>
       </c>
       <c r="C60">
-        <v>0.9699001759389178</v>
+        <v>0.9699001759389371</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1045,10 +1045,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.011574679232038</v>
+        <v>1.011574679231905</v>
       </c>
       <c r="C61">
-        <v>0.9692958735903536</v>
+        <v>0.9692958735903294</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1056,10 +1056,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.01174926222269</v>
+        <v>1.011749262222877</v>
       </c>
       <c r="C62">
-        <v>0.9693233873234383</v>
+        <v>0.9693233873234745</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1067,10 +1067,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.005952183630374</v>
+        <v>1.005952183630385</v>
       </c>
       <c r="C63">
-        <v>0.9684455145129164</v>
+        <v>0.9684455145129298</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1078,10 +1078,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.009897849711819</v>
+        <v>1.009897849711816</v>
       </c>
       <c r="C64">
-        <v>0.9690475758523694</v>
+        <v>0.969047575852344</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1089,10 +1089,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1.004203580830608</v>
+        <v>1.004203580830725</v>
       </c>
       <c r="C65">
-        <v>0.9681755139479409</v>
+        <v>0.9681755139479843</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1103,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="C66">
-        <v>0.9671110740623562</v>
+        <v>0.9671110740624174</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1114,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>0.9659975708414839</v>
+        <v>0.965997570841489</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1125,7 +1125,7 @@
         <v>1</v>
       </c>
       <c r="C68">
-        <v>0.9649120856610236</v>
+        <v>0.9649120856610174</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1136,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>0.9640864949948047</v>
+        <v>0.964086494994707</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>0.9616688881380332</v>
+        <v>0.9616688881380294</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1158,7 +1158,7 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>0.9609367066062727</v>
+        <v>0.9609367066062735</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1169,7 +1169,7 @@
         <v>1</v>
       </c>
       <c r="C72">
-        <v>0.9503315559884877</v>
+        <v>0.9503315559885822</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1180,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="C73">
-        <v>0.9511079026890468</v>
+        <v>0.9511079026890011</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1191,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <v>0.9635033387106801</v>
+        <v>0.9635033387107251</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1202,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="C75">
-        <v>0.9532832715443758</v>
+        <v>0.9532832715443531</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1213,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="C76">
-        <v>0.9550138306157754</v>
+        <v>0.9550138306159264</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1221,10 +1221,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1.007416850291466</v>
+        <v>1.007416850291505</v>
       </c>
       <c r="C77">
-        <v>0.9631514331138951</v>
+        <v>0.9631514331139844</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1232,10 +1232,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1.004863169447066</v>
+        <v>1.004863169447028</v>
       </c>
       <c r="C78">
-        <v>0.9520052892939617</v>
+        <v>0.9520052892939341</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1243,10 +1243,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1.006019311400936</v>
+        <v>1.006019311400887</v>
       </c>
       <c r="C79">
-        <v>0.9570160062263802</v>
+        <v>0.9570160062262895</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1254,10 +1254,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1.00492121964795</v>
+        <v>1.004921219647942</v>
       </c>
       <c r="C80">
-        <v>0.9522555647519134</v>
+        <v>0.9522555647519029</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1265,10 +1265,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1.004464641471898</v>
+        <v>1.004464641471992</v>
       </c>
       <c r="C81">
-        <v>0.9502961132999007</v>
+        <v>0.9502961133002253</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1276,10 +1276,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1.018792252209487</v>
+        <v>1.018792252286061</v>
       </c>
       <c r="C82">
-        <v>0.9598455904544829</v>
+        <v>0.9598455906397951</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1287,10 +1287,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1.020163665083597</v>
+        <v>1.020163665083616</v>
       </c>
       <c r="C83">
-        <v>0.9656979023017321</v>
+        <v>0.9656979023017297</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1298,10 +1298,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1.021990630409212</v>
+        <v>1.021990630409196</v>
       </c>
       <c r="C84">
-        <v>0.9736220097219986</v>
+        <v>0.9736220097218824</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1309,10 +1309,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1.021943694029372</v>
+        <v>1.02194369402936</v>
       </c>
       <c r="C85">
-        <v>0.9734103242191658</v>
+        <v>0.9734103242191462</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1320,10 +1320,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1.024291180776696</v>
+        <v>1.024291180776713</v>
       </c>
       <c r="C86">
-        <v>0.9838152213050722</v>
+        <v>0.9838152213050381</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1331,10 +1331,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1.023268988432416</v>
+        <v>1.023268988432442</v>
       </c>
       <c r="C87">
-        <v>0.9792497063163997</v>
+        <v>0.9792497063165018</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1342,10 +1342,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1.024225338785568</v>
+        <v>1.024225338785596</v>
       </c>
       <c r="C88">
-        <v>0.9835123864087161</v>
+        <v>0.9835123864088072</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1353,10 +1353,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1.027177408535282</v>
+        <v>1.027177408535257</v>
       </c>
       <c r="C89">
-        <v>0.9969944741340107</v>
+        <v>0.9969944741339317</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1364,10 +1364,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1.026657366122383</v>
+        <v>1.026657366122365</v>
       </c>
       <c r="C90">
-        <v>0.9945796882156908</v>
+        <v>0.9945796882156819</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1375,7 +1375,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1.028700362118413</v>
+        <v>1.028700362118335</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -1386,7 +1386,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1.030815227882975</v>
+        <v>1.030815227882918</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -1397,7 +1397,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1.03224927126092</v>
+        <v>1.032249271260825</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -1408,7 +1408,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1.033126095511009</v>
+        <v>1.033126095510962</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -1419,7 +1419,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1.034436977332859</v>
+        <v>1.034436977332892</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -1430,7 +1430,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1.037756504167929</v>
+        <v>1.037756504167976</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -1441,7 +1441,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1.042499488049006</v>
+        <v>1.042499488048749</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -1452,7 +1452,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1.038899090561542</v>
+        <v>1.038899090561654</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -1463,7 +1463,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1.042744521871381</v>
+        <v>1.042744521871575</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -1474,7 +1474,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1.042875350530687</v>
+        <v>1.04287535053057</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1.046893914905481</v>
+        <v>1.046893914905439</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -1496,7 +1496,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1.042637983670565</v>
+        <v>1.042637983670474</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -1507,7 +1507,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1.046289783558397</v>
+        <v>1.046289783558439</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -1518,7 +1518,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1.044706308197092</v>
+        <v>1.044706308197154</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -1529,7 +1529,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1.047910790023717</v>
+        <v>1.047910790023652</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -1540,7 +1540,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1.045349252127371</v>
+        <v>1.045349252127375</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -1551,7 +1551,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1.046417957022881</v>
+        <v>1.046417957022812</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -1562,7 +1562,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1.048479977273465</v>
+        <v>1.048479977273361</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -1573,7 +1573,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1.03483955771115</v>
+        <v>1.034839557710981</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -1584,7 +1584,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1.032371694892348</v>
+        <v>1.032371694892475</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -1595,7 +1595,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1.03399319300963</v>
+        <v>1.033993193009474</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -1606,7 +1606,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1.03214328286228</v>
+        <v>1.032143282862033</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -1617,7 +1617,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1.029045100153087</v>
+        <v>1.029045100153039</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -1628,7 +1628,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1.028468104222515</v>
+        <v>1.02846810422247</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -1639,7 +1639,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1.029925786206759</v>
+        <v>1.029925786206613</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -1650,7 +1650,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>1.034984223936222</v>
+        <v>1.034984223936218</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -1661,7 +1661,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>1.032562793128211</v>
+        <v>1.032562793128102</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -1672,7 +1672,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>1.036216317938715</v>
+        <v>1.036216317938588</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -1683,7 +1683,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1.037241941213763</v>
+        <v>1.037241941213926</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -1694,7 +1694,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1.037105206001151</v>
+        <v>1.037105206001177</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -1705,7 +1705,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1.035344178666206</v>
+        <v>1.03534417866613</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -1716,7 +1716,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>1.034787798600838</v>
+        <v>1.034787798600774</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -1727,7 +1727,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>1.037596302500436</v>
+        <v>1.037596302500483</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -1738,7 +1738,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>1.030442744732925</v>
+        <v>1.0304427447327</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -1749,7 +1749,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>1.032904917776324</v>
+        <v>1.032904917776448</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -1760,7 +1760,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>1.026325472661435</v>
+        <v>1.026325472661441</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -1771,7 +1771,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>1.032225823594361</v>
+        <v>1.032225823594415</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -1782,7 +1782,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>1.032738538771809</v>
+        <v>1.032738538771751</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -1793,7 +1793,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1.035146706216617</v>
+        <v>1.035146706216766</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -1804,7 +1804,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1.03761572227697</v>
+        <v>1.037615722277056</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>1.039552566985645</v>
+        <v>1.03955256698558</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -1826,7 +1826,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>1.04870366268212</v>
+        <v>1.048703662681874</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -1837,7 +1837,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>1.049104052364867</v>
+        <v>1.049104052364849</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -1848,7 +1848,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>1.044781105521527</v>
+        <v>1.044781105521493</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -1859,10 +1859,10 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1.037153414715372</v>
+        <v>1.037153414715294</v>
       </c>
       <c r="C135">
-        <v>0.9972924632740293</v>
+        <v>0.9972924632740019</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1870,10 +1870,10 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1.040047797202886</v>
+        <v>1.040047797203038</v>
       </c>
       <c r="C136">
-        <v>0.9977309648710703</v>
+        <v>0.9977309648711223</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1881,10 +1881,10 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>1.042882376355658</v>
+        <v>1.042882376355744</v>
       </c>
       <c r="C137">
-        <v>0.998154746851451</v>
+        <v>0.998154746851495</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1892,10 +1892,10 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>1.038992443730734</v>
+        <v>1.038992443670462</v>
       </c>
       <c r="C138">
-        <v>0.9852311535363333</v>
+        <v>0.9852311535119398</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1903,10 +1903,10 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1.043057341234685</v>
+        <v>1.043057341234827</v>
       </c>
       <c r="C139">
-        <v>0.9857825640023349</v>
+        <v>0.9857825640023511</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1914,10 +1914,10 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1.046647852345605</v>
+        <v>1.046647852345727</v>
       </c>
       <c r="C140">
-        <v>0.9862555431963055</v>
+        <v>0.986255543196367</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1925,10 +1925,10 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1.047847046067567</v>
+        <v>1.047847046067558</v>
       </c>
       <c r="C141">
-        <v>0.9864119242486957</v>
+        <v>0.9864119242486455</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1936,10 +1936,10 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1.03556098753437</v>
+        <v>1.035560987534582</v>
       </c>
       <c r="C142">
-        <v>0.9726027296930897</v>
+        <v>0.9726027296931827</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1947,10 +1947,10 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1.035906284416437</v>
+        <v>1.035906284416464</v>
       </c>
       <c r="C143">
-        <v>0.972645335651149</v>
+        <v>0.9726453356511938</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1958,10 +1958,10 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>1.034708587513761</v>
+        <v>1.034708587513943</v>
       </c>
       <c r="C144">
-        <v>0.9724937722445617</v>
+        <v>0.9724937722446314</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1969,10 +1969,10 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>1.03606889220029</v>
+        <v>1.036068892200283</v>
       </c>
       <c r="C145">
-        <v>0.9726643208316963</v>
+        <v>0.9726643208317441</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1980,10 +1980,10 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>1.036236662331046</v>
+        <v>1.036236662330941</v>
       </c>
       <c r="C146">
-        <v>0.9726863692085411</v>
+        <v>0.9726863692085113</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1991,10 +1991,10 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>1.033539041191414</v>
+        <v>1.033539041191317</v>
       </c>
       <c r="C147">
-        <v>0.9723437951394907</v>
+        <v>0.9723437951394425</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2002,10 +2002,10 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>1.031026103999806</v>
+        <v>1.031026103999768</v>
       </c>
       <c r="C148">
-        <v>0.9720176562046069</v>
+        <v>0.9720176562045952</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2013,10 +2013,10 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1.031229438028459</v>
+        <v>1.031229438028508</v>
       </c>
       <c r="C149">
-        <v>0.9720451840391202</v>
+        <v>0.9720451840391017</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2024,10 +2024,10 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>1.029621065721512</v>
+        <v>1.029621065721687</v>
       </c>
       <c r="C150">
-        <v>0.9718338928556811</v>
+        <v>0.9718338928557356</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2035,10 +2035,10 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>1.029166267386211</v>
+        <v>1.029166267386208</v>
       </c>
       <c r="C151">
-        <v>0.9717731854535745</v>
+        <v>0.9717731854535665</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2046,10 +2046,10 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>1.025042416281928</v>
+        <v>1.025042416239075</v>
       </c>
       <c r="C152">
-        <v>0.9712189860302104</v>
+        <v>0.9712189860027007</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2057,10 +2057,10 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>1.019361377023035</v>
+        <v>1.019361377023111</v>
       </c>
       <c r="C153">
-        <v>0.9704276995416157</v>
+        <v>0.970427699541604</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2068,10 +2068,10 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>1.021170403991143</v>
+        <v>1.021170403991138</v>
       </c>
       <c r="C154">
-        <v>0.9706838800771878</v>
+        <v>0.9706838800771986</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2079,10 +2079,10 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>1.022604717617242</v>
+        <v>1.022604717617084</v>
       </c>
       <c r="C155">
-        <v>0.9708846507127671</v>
+        <v>0.9708846507127067</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2090,10 +2090,10 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>1.012155596834818</v>
+        <v>1.012155596834863</v>
       </c>
       <c r="C156">
-        <v>0.9693821011099578</v>
+        <v>0.9693821011099427</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2101,10 +2101,10 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>1.015914082588014</v>
+        <v>1.015914082588087</v>
       </c>
       <c r="C157">
-        <v>0.9699357506580435</v>
+        <v>0.9699357506580656</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2112,10 +2112,10 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1.00984910166125</v>
+        <v>1.009849101661088</v>
       </c>
       <c r="C158">
-        <v>0.9690388418440123</v>
+        <v>0.9690388418439421</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2123,10 +2123,10 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>1.005159345773302</v>
+        <v>1.005159345773437</v>
       </c>
       <c r="C159">
-        <v>0.9683218992074177</v>
+        <v>0.9683218992074484</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2134,10 +2134,10 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>1.006565914687745</v>
+        <v>1.006565914687617</v>
       </c>
       <c r="C160">
-        <v>0.9685409455757443</v>
+        <v>0.9685409455757125</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2145,10 +2145,10 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>1.00255502258474</v>
+        <v>1.00255502258473</v>
       </c>
       <c r="C161">
-        <v>0.967918412015893</v>
+        <v>0.9679184120158673</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2156,10 +2156,10 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>1.002882404916805</v>
+        <v>1.00288240491668</v>
       </c>
       <c r="C162">
-        <v>0.9679696921619213</v>
+        <v>0.9679696921618517</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="C163">
-        <v>0.9666735504043926</v>
+        <v>0.966673550404313</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2181,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="C164">
-        <v>0.9652467312560717</v>
+        <v>0.9652467312560249</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2192,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="C165">
-        <v>0.9643735415696205</v>
+        <v>0.9643735415695542</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2203,7 +2203,7 @@
         <v>1</v>
       </c>
       <c r="C166">
-        <v>0.9627060101861322</v>
+        <v>0.9627060101861606</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2214,7 +2214,7 @@
         <v>1</v>
       </c>
       <c r="C167">
-        <v>0.9584553386953907</v>
+        <v>0.9584553386951821</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="C168">
-        <v>0.950869607279705</v>
+        <v>0.9508696072796572</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2236,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="C169">
-        <v>0.9522552838625136</v>
+        <v>0.9522552838627911</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2247,7 +2247,7 @@
         <v>1</v>
       </c>
       <c r="C170">
-        <v>0.9599179992828883</v>
+        <v>0.9599179992829829</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2258,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="C171">
-        <v>0.9653240701207692</v>
+        <v>0.9653240701208845</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2269,7 +2269,7 @@
         <v>1</v>
       </c>
       <c r="C172">
-        <v>0.9564571128693818</v>
+        <v>0.9564571128694839</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2280,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="C173">
-        <v>0.9511077439459229</v>
+        <v>0.9511077439460229</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2288,10 +2288,10 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>1.006567544855721</v>
+        <v>1.006567544855756</v>
       </c>
       <c r="C174">
-        <v>0.9594150770689516</v>
+        <v>0.9594150770690819</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2299,10 +2299,10 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>1.004889859884712</v>
+        <v>1.004889859884678</v>
       </c>
       <c r="C175">
-        <v>0.9521196560912604</v>
+        <v>0.9521196560911116</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2310,10 +2310,10 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>1.004623126754798</v>
+        <v>1.004623126754817</v>
       </c>
       <c r="C176">
-        <v>0.9509749835126231</v>
+        <v>0.9509749835126807</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2321,10 +2321,10 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>1.00444048848084</v>
+        <v>1.004440488480862</v>
       </c>
       <c r="C177">
-        <v>0.9501903175720324</v>
+        <v>0.9501903175720843</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2332,10 +2332,10 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>1.019033212311719</v>
+        <v>1.019033212379626</v>
       </c>
       <c r="C178">
-        <v>0.9608694802130791</v>
+        <v>0.9608694803759295</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2343,10 +2343,10 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>1.021380570701659</v>
+        <v>1.021380570701638</v>
       </c>
       <c r="C179">
-        <v>0.9709604685376081</v>
+        <v>0.9709604685375287</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2354,10 +2354,10 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>1.020367680003094</v>
+        <v>1.020367680003081</v>
       </c>
       <c r="C180">
-        <v>0.9665736079544929</v>
+        <v>0.9665736079544323</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2365,10 +2365,10 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>1.021425694999515</v>
+        <v>1.021425694999463</v>
       </c>
       <c r="C181">
-        <v>0.9711523153011995</v>
+        <v>0.9711523153009911</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2376,10 +2376,10 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>1.023605199101572</v>
+        <v>1.023605199101568</v>
       </c>
       <c r="C182">
-        <v>0.9807449182523839</v>
+        <v>0.9807449182523865</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2387,10 +2387,10 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>1.024277758448799</v>
+        <v>1.024277758448804</v>
       </c>
       <c r="C183">
-        <v>0.9837518196549111</v>
+        <v>0.9837518196549048</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2398,10 +2398,10 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>1.025443822857449</v>
+        <v>1.025443822857497</v>
       </c>
       <c r="C184">
-        <v>0.9890204778983672</v>
+        <v>0.9890204778985622</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2409,10 +2409,10 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>1.025410227781353</v>
+        <v>1.025410227781398</v>
       </c>
       <c r="C185">
-        <v>0.9888641286365867</v>
+        <v>0.9888641286366752</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2420,10 +2420,10 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>1.027299716620995</v>
+        <v>1.027299716620932</v>
       </c>
       <c r="C186">
-        <v>0.9975571620814375</v>
+        <v>0.9975571620813517</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2431,7 +2431,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>1.029411677590822</v>
+        <v>1.029411677590836</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -2442,7 +2442,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>1.030228322330665</v>
+        <v>1.030228322330613</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -2453,7 +2453,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>1.031163423912297</v>
+        <v>1.031163423912296</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -2464,7 +2464,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>1.032269328550836</v>
+        <v>1.032269328550861</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -2475,7 +2475,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>1.03402675638123</v>
+        <v>1.034026756381327</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -2486,7 +2486,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>1.036531853850832</v>
+        <v>1.03653185385078</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -2497,7 +2497,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>1.040894564934614</v>
+        <v>1.040894564934738</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -2508,7 +2508,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>1.040405813884159</v>
+        <v>1.040405813884005</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -2519,7 +2519,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>1.041193362393523</v>
+        <v>1.041193362393514</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -2530,7 +2530,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>1.039196725475995</v>
+        <v>1.039196725476217</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -2541,7 +2541,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>1.04145084941598</v>
+        <v>1.041450849415943</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -2552,7 +2552,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>1.043518349138866</v>
+        <v>1.043518349139009</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -2563,7 +2563,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>1.046123083382421</v>
+        <v>1.046123083382604</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -2574,7 +2574,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>1.04333616220286</v>
+        <v>1.043336162202869</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -2585,7 +2585,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>1.044178863879214</v>
+        <v>1.044178863879365</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -2596,7 +2596,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>1.04486439884287</v>
+        <v>1.044864398842815</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -2607,7 +2607,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>1.042747590697946</v>
+        <v>1.042747590697956</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -2618,7 +2618,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>1.047242029828141</v>
+        <v>1.047242029827975</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -2629,7 +2629,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>1.048799642319591</v>
+        <v>1.048799642319736</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -2640,7 +2640,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>1.035009807716135</v>
+        <v>1.035009807715994</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -2662,7 +2662,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>1.030965826422534</v>
+        <v>1.030965826422432</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -2673,7 +2673,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>1.034420435342108</v>
+        <v>1.034420435342222</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -2684,7 +2684,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>1.035468730063846</v>
+        <v>1.035468730063911</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -2695,7 +2695,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>1.031827554011049</v>
+        <v>1.031827554011215</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -2706,7 +2706,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>1.032995357364313</v>
+        <v>1.032995357364232</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -2717,7 +2717,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>1.040509731608815</v>
+        <v>1.040509731608942</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -2728,7 +2728,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>1.037092347170627</v>
+        <v>1.037092347170868</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -2739,7 +2739,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>1.036334362203639</v>
+        <v>1.03633436220357</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -2750,7 +2750,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>1.039798539145486</v>
+        <v>1.039798539145446</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -2761,7 +2761,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>1.038283673345211</v>
+        <v>1.038283673345178</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -2772,7 +2772,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>1.033890648230886</v>
+        <v>1.033890648230899</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -2783,7 +2783,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>1.031859642754269</v>
+        <v>1.031859642754175</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -2794,7 +2794,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>1.033501556243476</v>
+        <v>1.033501556243361</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -2805,7 +2805,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>1.02979387595527</v>
+        <v>1.029793875955228</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -2816,7 +2816,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>1.030371480450335</v>
+        <v>1.030371480450331</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -2827,7 +2827,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>1.030852503595502</v>
+        <v>1.030852503595497</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -2838,7 +2838,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>1.031119180628715</v>
+        <v>1.031119180628829</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -2849,7 +2849,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>1.035166118117408</v>
+        <v>1.035166118117518</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -2860,7 +2860,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>1.037927370126663</v>
+        <v>1.03792737012704</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -2871,7 +2871,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>1.036354347073545</v>
+        <v>1.036354347073478</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -2882,7 +2882,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>1.048883427507349</v>
+        <v>1.04888342750727</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -2893,7 +2893,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>1.040018130903628</v>
+        <v>1.040018130903667</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -2904,7 +2904,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>1.045355629889584</v>
+        <v>1.045355629889676</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -2915,7 +2915,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>1.048486374225527</v>
+        <v>1.048486374225737</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -2926,10 +2926,10 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>1.042348514750208</v>
+        <v>1.042348514750405</v>
       </c>
       <c r="C232">
-        <v>0.9980757013472134</v>
+        <v>0.9980757013472663</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2937,10 +2937,10 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>1.0442757982975</v>
+        <v>1.044275798297394</v>
       </c>
       <c r="C233">
-        <v>0.9983603218293915</v>
+        <v>0.9983603218293644</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2948,10 +2948,10 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>1.037999605901627</v>
+        <v>1.037999605901734</v>
       </c>
       <c r="C234">
-        <v>0.9850947695636106</v>
+        <v>0.9850947695635932</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2959,10 +2959,10 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>1.04145829265581</v>
+        <v>1.041458292655764</v>
       </c>
       <c r="C235">
-        <v>0.9855680084107847</v>
+        <v>0.9855680084107892</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2970,10 +2970,10 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>1.04368902634726</v>
+        <v>1.043689026347232</v>
       </c>
       <c r="C236">
-        <v>0.9858662640735837</v>
+        <v>0.9858662640736098</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2981,10 +2981,10 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>1.035391267477506</v>
+        <v>1.035391267477379</v>
       </c>
       <c r="C237">
-        <v>0.9725804492166364</v>
+        <v>0.9725804492165493</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2992,10 +2992,10 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>1.037017195838455</v>
+        <v>1.037017195838358</v>
       </c>
       <c r="C238">
-        <v>0.9727860641571686</v>
+        <v>0.9727860641571175</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3003,10 +3003,10 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>1.03392870766842</v>
+        <v>1.033928707668294</v>
       </c>
       <c r="C239">
-        <v>0.9723948892387059</v>
+        <v>0.9723948892386641</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3014,10 +3014,10 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>1.038357743073028</v>
+        <v>1.038357743072908</v>
       </c>
       <c r="C240">
-        <v>0.9729503846102839</v>
+        <v>0.9729503846102461</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3025,10 +3025,10 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>1.036319854262586</v>
+        <v>1.036319854262588</v>
       </c>
       <c r="C241">
-        <v>0.9726967407946365</v>
+        <v>0.9726967407946305</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3036,10 +3036,10 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>1.03596081618915</v>
+        <v>1.035960816189134</v>
       </c>
       <c r="C242">
-        <v>0.9726516238753732</v>
+        <v>0.9726516238753683</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3047,10 +3047,10 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>1.033536219004111</v>
+        <v>1.03353621900397</v>
       </c>
       <c r="C243">
-        <v>0.9723437098409288</v>
+        <v>0.9723437098408505</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3058,10 +3058,10 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>1.032339622288111</v>
+        <v>1.032339622287948</v>
       </c>
       <c r="C244">
-        <v>0.9721881909162088</v>
+        <v>0.9721881909161884</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3069,10 +3069,10 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>1.02775613453211</v>
+        <v>1.027756134532056</v>
       </c>
       <c r="C245">
-        <v>0.971585120422868</v>
+        <v>0.971585120422818</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3080,10 +3080,10 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>1.031697604227173</v>
+        <v>1.031697604227054</v>
       </c>
       <c r="C246">
-        <v>0.9721050781798971</v>
+        <v>0.9721050781798346</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3091,10 +3091,10 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>1.027513672006579</v>
+        <v>1.027513672006628</v>
       </c>
       <c r="C247">
-        <v>0.971552297709978</v>
+        <v>0.9715522977099524</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3102,10 +3102,10 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>1.026628142081893</v>
+        <v>1.026628142030213</v>
       </c>
       <c r="C248">
-        <v>0.9714342000840616</v>
+        <v>0.9714342000521751</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3113,10 +3113,10 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>1.024114791406088</v>
+        <v>1.024114791406173</v>
       </c>
       <c r="C249">
-        <v>0.9710926564331077</v>
+        <v>0.9710926564331206</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3124,10 +3124,10 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>1.019719223180252</v>
+        <v>1.019719223180152</v>
       </c>
       <c r="C250">
-        <v>0.9704786694368386</v>
+        <v>0.9704786694368323</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3135,10 +3135,10 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>1.017264876197078</v>
+        <v>1.017264876197019</v>
       </c>
       <c r="C251">
-        <v>0.9701290355742193</v>
+        <v>0.9701290355742175</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3146,10 +3146,10 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>1.016387520396638</v>
+        <v>1.016387520397011</v>
       </c>
       <c r="C252">
-        <v>0.9700025432682726</v>
+        <v>0.9700025432683983</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3157,10 +3157,10 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>1.012612475750705</v>
+        <v>1.012612475750671</v>
       </c>
       <c r="C253">
-        <v>0.9694514705133381</v>
+        <v>0.9694514705133176</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3168,10 +3168,10 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>1.012014427888191</v>
+        <v>1.012014427888075</v>
       </c>
       <c r="C254">
-        <v>0.9693623558335052</v>
+        <v>0.9693623558334584</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3179,10 +3179,10 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>1.007803911775791</v>
+        <v>1.007803911775737</v>
       </c>
       <c r="C255">
-        <v>0.9687293830316306</v>
+        <v>0.9687293830316365</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3190,10 +3190,10 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>1.004519360432116</v>
+        <v>1.004519360431971</v>
       </c>
       <c r="C256">
-        <v>0.9682235838980403</v>
+        <v>0.9682235838979749</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3201,10 +3201,10 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>1.006508698306526</v>
+        <v>1.006508698306633</v>
       </c>
       <c r="C257">
-        <v>0.9685323831728759</v>
+        <v>0.9685323831728978</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3212,10 +3212,10 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>1.001685714728693</v>
+        <v>1.001685714728594</v>
       </c>
       <c r="C258">
-        <v>0.9677819450028078</v>
+        <v>0.9677819450028005</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3226,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="C259">
-        <v>0.9668460429128546</v>
+        <v>0.9668460429128248</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3237,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="C260">
-        <v>0.9644670286252572</v>
+        <v>0.9644670286252257</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3248,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="C261">
-        <v>0.9636259671135227</v>
+        <v>0.963625967113538</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3259,7 +3259,7 @@
         <v>1</v>
       </c>
       <c r="C262">
-        <v>0.9619853927750686</v>
+        <v>0.9619853927750797</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3270,7 +3270,7 @@
         <v>1</v>
       </c>
       <c r="C263">
-        <v>0.9606196376737247</v>
+        <v>0.9606196376737604</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3281,7 +3281,7 @@
         <v>1</v>
       </c>
       <c r="C264">
-        <v>0.9629716297362796</v>
+        <v>0.9629716297361917</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3292,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="C265">
-        <v>0.9513404733770057</v>
+        <v>0.9513404733771107</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3303,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="C266">
-        <v>0.962272381974522</v>
+        <v>0.9622723819746622</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3314,7 +3314,7 @@
         <v>1</v>
       </c>
       <c r="C267">
-        <v>0.9527119403506652</v>
+        <v>0.9527119403503741</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3325,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="C268">
-        <v>0.9570677255337436</v>
+        <v>0.9570677255334675</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="C269">
-        <v>0.9540046948097123</v>
+        <v>0.9540046948096291</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3344,10 +3344,10 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>1.006021745766818</v>
+        <v>1.006021745766935</v>
       </c>
       <c r="C270">
-        <v>0.9570255943249971</v>
+        <v>0.957025594325315</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3355,10 +3355,10 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>1.004809947454486</v>
+        <v>1.004809947454463</v>
       </c>
       <c r="C271">
-        <v>0.9517763672080329</v>
+        <v>0.9517763672079916</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3366,10 +3366,10 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>1.004768522006177</v>
+        <v>1.00476852200619</v>
       </c>
       <c r="C272">
-        <v>0.9516013070386846</v>
+        <v>0.9516013070386887</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3377,10 +3377,10 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>1.004755015145316</v>
+        <v>1.004755015145326</v>
       </c>
       <c r="C273">
-        <v>0.9515428212527087</v>
+        <v>0.9515428212526972</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3388,10 +3388,10 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>1.004624033845442</v>
+        <v>1.004624033845443</v>
       </c>
       <c r="C274">
-        <v>0.9509777024196474</v>
+        <v>0.9509777024196661</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3399,10 +3399,10 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>1.005719308688094</v>
+        <v>1.005719308688098</v>
       </c>
       <c r="C275">
-        <v>0.9557085842008337</v>
+        <v>0.9557085842007633</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3410,10 +3410,10 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>1.006579140410029</v>
+        <v>1.006579140410066</v>
       </c>
       <c r="C276">
-        <v>0.9594603631405277</v>
+        <v>0.9594603631406264</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3421,10 +3421,10 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>1.005857734504821</v>
+        <v>1.005857734504841</v>
       </c>
       <c r="C277">
-        <v>0.9563092193673325</v>
+        <v>0.9563092193673874</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3432,10 +3432,10 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>1.008322429350339</v>
+        <v>1.008322429350388</v>
       </c>
       <c r="C278">
-        <v>0.9671758921126367</v>
+        <v>0.9671758921127558</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3443,10 +3443,10 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>1.008021134132533</v>
+        <v>1.008021134132584</v>
       </c>
       <c r="C279">
-        <v>0.9658288796017763</v>
+        <v>0.965828879601939</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3454,10 +3454,10 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>1.009425530175284</v>
+        <v>1.009425530175322</v>
       </c>
       <c r="C280">
-        <v>0.9721348955821706</v>
+        <v>0.9721348955823493</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3465,10 +3465,10 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>1.009180770153766</v>
+        <v>1.009180770153704</v>
       </c>
       <c r="C281">
-        <v>0.9710232942914856</v>
+        <v>0.9710232942912403</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3476,10 +3476,10 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>1.01066983349616</v>
+        <v>1.010669833496187</v>
       </c>
       <c r="C282">
-        <v>0.9778082109894169</v>
+        <v>0.9778082109894674</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3487,10 +3487,10 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>1.012540991979273</v>
+        <v>1.012540991979225</v>
       </c>
       <c r="C283">
-        <v>0.9865151106993066</v>
+        <v>0.9865151106991762</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3498,10 +3498,10 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>1.014636653690685</v>
+        <v>1.014636653690691</v>
       </c>
       <c r="C284">
-        <v>0.9965351351293378</v>
+        <v>0.9965351351293441</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3509,7 +3509,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>1.015926856057132</v>
+        <v>1.015926856057131</v>
       </c>
       <c r="C285">
         <v>1</v>
@@ -3520,7 +3520,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>1.017923782476824</v>
+        <v>1.017923782476846</v>
       </c>
       <c r="C286">
         <v>1</v>
@@ -3531,7 +3531,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>1.017963626038964</v>
+        <v>1.017963626038921</v>
       </c>
       <c r="C287">
         <v>1</v>
@@ -3542,7 +3542,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>1.01862711159163</v>
+        <v>1.018627111591654</v>
       </c>
       <c r="C288">
         <v>1</v>
@@ -3553,7 +3553,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>1.022193320240138</v>
+        <v>1.022193320240243</v>
       </c>
       <c r="C289">
         <v>1</v>
@@ -3564,7 +3564,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>1.031464093669147</v>
+        <v>1.031464093669132</v>
       </c>
       <c r="C290">
         <v>1</v>
@@ -3575,7 +3575,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>1.026357763084764</v>
+        <v>1.02635776308462</v>
       </c>
       <c r="C291">
         <v>1</v>
@@ -3586,7 +3586,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>1.03218433132234</v>
+        <v>1.032184331322228</v>
       </c>
       <c r="C292">
         <v>1</v>
@@ -3597,7 +3597,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>1.023961256547581</v>
+        <v>1.023961256547531</v>
       </c>
       <c r="C293">
         <v>1</v>
@@ -3608,7 +3608,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>1.028562464317685</v>
+        <v>1.028562464317532</v>
       </c>
       <c r="C294">
         <v>1</v>
@@ -3619,7 +3619,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>1.024815082271777</v>
+        <v>1.024815082271837</v>
       </c>
       <c r="C295">
         <v>1</v>
@@ -3630,7 +3630,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>1.032178470749577</v>
+        <v>1.032178470749546</v>
       </c>
       <c r="C296">
         <v>1</v>
@@ -3641,7 +3641,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>1.024644345597791</v>
+        <v>1.024644345597731</v>
       </c>
       <c r="C297">
         <v>1</v>
@@ -3652,7 +3652,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>1.031397202908356</v>
+        <v>1.031397202908393</v>
       </c>
       <c r="C298">
         <v>1</v>
@@ -3663,7 +3663,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>1.031861518947935</v>
+        <v>1.031861518947842</v>
       </c>
       <c r="C299">
         <v>1</v>
@@ -3674,7 +3674,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>1.026356552256234</v>
+        <v>1.026356552256199</v>
       </c>
       <c r="C300">
         <v>1</v>
@@ -3685,7 +3685,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>1.031538204880865</v>
+        <v>1.031538204880884</v>
       </c>
       <c r="C301">
         <v>1</v>
@@ -3696,7 +3696,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>1.032425814460485</v>
+        <v>1.032425814460496</v>
       </c>
       <c r="C302">
         <v>1</v>
@@ -3707,7 +3707,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>1.030592464434</v>
+        <v>1.030592464433926</v>
       </c>
       <c r="C303">
         <v>1</v>
@@ -3718,7 +3718,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>1.028545698615494</v>
+        <v>1.028545698615608</v>
       </c>
       <c r="C304">
         <v>1</v>
@@ -3729,7 +3729,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>1.032478366369384</v>
+        <v>1.032478366369386</v>
       </c>
       <c r="C305">
         <v>1</v>
@@ -3740,7 +3740,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>1.033314665515496</v>
+        <v>1.033314665515386</v>
       </c>
       <c r="C306">
         <v>1</v>
@@ -3751,7 +3751,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>1.035817192159992</v>
+        <v>1.035817192160012</v>
       </c>
       <c r="C307">
         <v>1</v>
@@ -3762,7 +3762,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>1.034963949617836</v>
+        <v>1.034963949617991</v>
       </c>
       <c r="C308">
         <v>1</v>
@@ -3773,7 +3773,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>1.034155552045335</v>
+        <v>1.034155552045218</v>
       </c>
       <c r="C309">
         <v>1</v>
@@ -3784,7 +3784,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>1.031938079332054</v>
+        <v>1.031938079331898</v>
       </c>
       <c r="C310">
         <v>1</v>
@@ -3795,7 +3795,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>1.041002808321982</v>
+        <v>1.041002808321799</v>
       </c>
       <c r="C311">
         <v>1</v>
@@ -3806,7 +3806,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>1.037544546852617</v>
+        <v>1.037544546852609</v>
       </c>
       <c r="C312">
         <v>1</v>
@@ -3817,7 +3817,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>1.036240803324616</v>
+        <v>1.036240803324562</v>
       </c>
       <c r="C313">
         <v>1</v>
@@ -3828,7 +3828,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>1.03756511422524</v>
+        <v>1.037565114225129</v>
       </c>
       <c r="C314">
         <v>1</v>
@@ -3839,7 +3839,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>1.036558733361619</v>
+        <v>1.036558733361627</v>
       </c>
       <c r="C315">
         <v>1</v>
@@ -3850,7 +3850,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>1.032637514856157</v>
+        <v>1.032637514856029</v>
       </c>
       <c r="C316">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>1.030444646280926</v>
+        <v>1.030444646280993</v>
       </c>
       <c r="C317">
         <v>1</v>
@@ -3872,7 +3872,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>1.026863428571021</v>
+        <v>1.026863428570851</v>
       </c>
       <c r="C318">
         <v>1</v>
@@ -3883,7 +3883,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>1.031117986069938</v>
+        <v>1.031117986070003</v>
       </c>
       <c r="C319">
         <v>1</v>
@@ -3894,7 +3894,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>1.034536983092363</v>
+        <v>1.03453698309235</v>
       </c>
       <c r="C320">
         <v>1</v>
@@ -3905,7 +3905,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>1.035373649161745</v>
+        <v>1.035373649161904</v>
       </c>
       <c r="C321">
         <v>1</v>
@@ -3916,7 +3916,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>1.037671858391891</v>
+        <v>1.037671858391941</v>
       </c>
       <c r="C322">
         <v>1</v>
@@ -3927,7 +3927,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>1.046143220839445</v>
+        <v>1.046143220839319</v>
       </c>
       <c r="C323">
         <v>1</v>
@@ -3938,7 +3938,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>1.043741357991898</v>
+        <v>1.043741357991815</v>
       </c>
       <c r="C324">
         <v>1</v>
@@ -3949,7 +3949,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>1.037003698882739</v>
+        <v>1.037003698882891</v>
       </c>
       <c r="C325">
         <v>1</v>
@@ -3960,7 +3960,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>1.040457606847416</v>
+        <v>1.040457606847181</v>
       </c>
       <c r="C326">
         <v>1</v>
@@ -3971,10 +3971,10 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>1.037171132147559</v>
+        <v>1.037171132147641</v>
       </c>
       <c r="C327">
-        <v>0.9972954768274314</v>
+        <v>0.9972954768274458</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3982,10 +3982,10 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>1.042668983169779</v>
+        <v>1.042668983169765</v>
       </c>
       <c r="C328">
-        <v>0.9981229159532871</v>
+        <v>0.9981229159533188</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -3993,10 +3993,10 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>1.048250507869448</v>
+        <v>1.048250507869525</v>
       </c>
       <c r="C329">
-        <v>0.9989363692885579</v>
+        <v>0.9989363692885802</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4004,10 +4004,10 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>1.036524017873115</v>
+        <v>1.036524017873196</v>
       </c>
       <c r="C330">
-        <v>0.9848890226036637</v>
+        <v>0.9848890226036592</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4015,10 +4015,10 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>1.04151009988571</v>
+        <v>1.041510099885853</v>
       </c>
       <c r="C331">
-        <v>0.9855744871366119</v>
+        <v>0.9855744871366381</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4026,10 +4026,10 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>1.048696868255468</v>
+        <v>1.048696868255365</v>
       </c>
       <c r="C332">
-        <v>0.986520480140629</v>
+        <v>0.9865204801405978</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4037,10 +4037,10 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>1.045906649579351</v>
+        <v>1.04590664957943</v>
       </c>
       <c r="C333">
-        <v>0.9861590051995623</v>
+        <v>0.9861590051995754</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4048,10 +4048,10 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>1.049742252485523</v>
+        <v>1.049742252485492</v>
       </c>
       <c r="C334">
-        <v>0.9866540459391163</v>
+        <v>0.9866540459391059</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4059,10 +4059,10 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>1.037951282089447</v>
+        <v>1.037951282089641</v>
       </c>
       <c r="C335">
-        <v>0.9729004081676583</v>
+        <v>0.9729004081677139</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4070,10 +4070,10 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>1.036618346152382</v>
+        <v>1.03661834615231</v>
       </c>
       <c r="C336">
-        <v>0.9727348811506041</v>
+        <v>0.9727348811505766</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4081,10 +4081,10 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>1.036524849283326</v>
+        <v>1.036524849283393</v>
       </c>
       <c r="C337">
-        <v>0.9727213744243711</v>
+        <v>0.9727213744243933</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4092,10 +4092,10 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>1.036973699564168</v>
+        <v>1.03697369956405</v>
       </c>
       <c r="C338">
-        <v>0.9727774340811504</v>
+        <v>0.9727774340811218</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4103,10 +4103,10 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>1.035863813424278</v>
+        <v>1.035863813424244</v>
       </c>
       <c r="C339">
-        <v>0.9726396277154254</v>
+        <v>0.9726396277154281</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4114,10 +4114,10 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>1.036707640891152</v>
+        <v>1.036707640891271</v>
       </c>
       <c r="C340">
-        <v>0.9727449266246802</v>
+        <v>0.9727449266247535</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4125,10 +4125,10 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>1.032754528858555</v>
+        <v>1.032754528858704</v>
       </c>
       <c r="C341">
-        <v>0.9722421991194347</v>
+        <v>0.972242199119515</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4136,10 +4136,10 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>1.028474253000397</v>
+        <v>1.028474253000481</v>
       </c>
       <c r="C342">
-        <v>0.9716808967622037</v>
+        <v>0.9716808967622305</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4147,10 +4147,10 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>1.027930963046342</v>
+        <v>1.027930963046341</v>
       </c>
       <c r="C343">
-        <v>0.971608280563945</v>
+        <v>0.9716082805639188</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4158,10 +4158,10 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>1.026643141504971</v>
+        <v>1.02664314145335</v>
       </c>
       <c r="C344">
-        <v>0.9714356106250076</v>
+        <v>0.9714356105931456</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4169,10 +4169,10 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>1.025072267010139</v>
+        <v>1.025072266967039</v>
       </c>
       <c r="C345">
-        <v>0.9712237728682798</v>
+        <v>0.9712237728406427</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4180,10 +4180,10 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>1.01863669146563</v>
+        <v>1.018636691465719</v>
       </c>
       <c r="C346">
-        <v>0.9703253080887104</v>
+        <v>0.9703253080887215</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4191,10 +4191,10 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>1.016879121120251</v>
+        <v>1.016879121120412</v>
       </c>
       <c r="C347">
-        <v>0.9700735597532887</v>
+        <v>0.9700735597533484</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4202,10 +4202,10 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>1.011476826480368</v>
+        <v>1.011476826480481</v>
       </c>
       <c r="C348">
-        <v>0.969280927023667</v>
+        <v>0.9692809270237026</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4213,10 +4213,10 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>1.008165704807007</v>
+        <v>1.008165704807062</v>
       </c>
       <c r="C349">
-        <v>0.9687822091477261</v>
+        <v>0.9687822091477785</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4224,10 +4224,10 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>1.011252743566406</v>
+        <v>1.011252743566552</v>
       </c>
       <c r="C350">
-        <v>0.9692492467965292</v>
+        <v>0.9692492467965705</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4235,10 +4235,10 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>1.005585443087401</v>
+        <v>1.005585443087377</v>
       </c>
       <c r="C351">
-        <v>0.9683877636628226</v>
+        <v>0.9683877636628324</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4246,10 +4246,10 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>1.005593111438321</v>
+        <v>1.005593111438357</v>
       </c>
       <c r="C352">
-        <v>0.9683903541361708</v>
+        <v>0.9683903541361563</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4257,10 +4257,10 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>1.003362371829147</v>
+        <v>1.003362371829148</v>
       </c>
       <c r="C353">
-        <v>0.9680438668776321</v>
+        <v>0.9680438668776616</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4271,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="C354">
-        <v>0.966707525119099</v>
+        <v>0.9667075251191342</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4282,7 +4282,7 @@
         <v>1</v>
       </c>
       <c r="C355">
-        <v>0.9662217825217219</v>
+        <v>0.9662217825216951</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4293,7 +4293,7 @@
         <v>1</v>
       </c>
       <c r="C356">
-        <v>0.9647430924817334</v>
+        <v>0.9647430924817966</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4304,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="C357">
-        <v>0.9643618027983922</v>
+        <v>0.9643618027983545</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4315,7 +4315,7 @@
         <v>1</v>
       </c>
       <c r="C358">
-        <v>0.9629032848645505</v>
+        <v>0.9629032848645477</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="C359">
-        <v>0.9610764868998823</v>
+        <v>0.9610764868998749</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4337,7 +4337,7 @@
         <v>1</v>
       </c>
       <c r="C360">
-        <v>0.951998440721601</v>
+        <v>0.9519984407214971</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4348,7 +4348,7 @@
         <v>1</v>
       </c>
       <c r="C361">
-        <v>0.9513531807723186</v>
+        <v>0.9513531807722816</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4359,7 +4359,7 @@
         <v>1</v>
       </c>
       <c r="C362">
-        <v>0.9542071076178507</v>
+        <v>0.9542071076180817</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4370,7 +4370,7 @@
         <v>1</v>
       </c>
       <c r="C363">
-        <v>0.9504768062259012</v>
+        <v>0.9504768062259018</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4381,7 +4381,7 @@
         <v>1</v>
       </c>
       <c r="C364">
-        <v>0.9620933218836029</v>
+        <v>0.9620933218835048</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4392,7 +4392,7 @@
         <v>1</v>
       </c>
       <c r="C365">
-        <v>0.9548727961662505</v>
+        <v>0.9548727961665174</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4400,10 +4400,10 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>1.006097427020672</v>
+        <v>1.006097427020643</v>
       </c>
       <c r="C366">
-        <v>0.9573570468114321</v>
+        <v>0.9573570468113671</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4411,10 +4411,10 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>1.005547954099343</v>
+        <v>1.005547954099357</v>
       </c>
       <c r="C367">
-        <v>0.9549626494399084</v>
+        <v>0.954962649439946</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4422,10 +4422,10 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>1.004698694132392</v>
+        <v>1.004698694132418</v>
       </c>
       <c r="C368">
-        <v>0.9512979239906474</v>
+        <v>0.9512979239907116</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4433,10 +4433,10 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>1.020416973944522</v>
+        <v>1.020416973944483</v>
       </c>
       <c r="C369">
-        <v>0.9667856591237378</v>
+        <v>0.9667856591236332</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4444,10 +4444,10 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>1.020828676215048</v>
+        <v>1.020828676214979</v>
       </c>
       <c r="C370">
-        <v>0.9685682438529912</v>
+        <v>0.9685682438528499</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4455,10 +4455,10 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>1.021461410786543</v>
+        <v>1.021461410786535</v>
       </c>
       <c r="C371">
-        <v>0.9713125567759289</v>
+        <v>0.9713125567758462</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4466,10 +4466,10 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>1.021812834817681</v>
+        <v>1.021812834817612</v>
       </c>
       <c r="C372">
-        <v>0.972843349004469</v>
+        <v>0.9728433490043181</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4477,10 +4477,10 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>1.021538662176149</v>
+        <v>1.021538662176201</v>
       </c>
       <c r="C373">
-        <v>0.9716453883632127</v>
+        <v>0.9716453883633192</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4488,10 +4488,10 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>1.02389641775292</v>
+        <v>1.023896417752937</v>
       </c>
       <c r="C374">
-        <v>0.9820449842037368</v>
+        <v>0.9820449842038055</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4499,10 +4499,10 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>1.023755776878763</v>
+        <v>1.023755776878753</v>
       </c>
       <c r="C375">
-        <v>0.9814169786953177</v>
+        <v>0.9814169786952278</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4510,10 +4510,10 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>1.026112340676138</v>
+        <v>1.026112340676118</v>
       </c>
       <c r="C376">
-        <v>0.9920754548280077</v>
+        <v>0.9920754548279244</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4521,10 +4521,10 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>1.024727650263495</v>
+        <v>1.024727650263588</v>
       </c>
       <c r="C377">
-        <v>0.9857709338873571</v>
+        <v>0.9857709338876334</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4532,7 +4532,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>1.028343743984011</v>
+        <v>1.028343743983999</v>
       </c>
       <c r="C378">
         <v>1</v>
@@ -4543,7 +4543,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>1.028430226797837</v>
+        <v>1.02843022679784</v>
       </c>
       <c r="C379">
         <v>1</v>
@@ -4554,7 +4554,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>1.030882147377693</v>
+        <v>1.030882147377687</v>
       </c>
       <c r="C380">
         <v>1</v>
@@ -4565,7 +4565,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>1.031746291338104</v>
+        <v>1.031746291338107</v>
       </c>
       <c r="C381">
         <v>1</v>
@@ -4576,7 +4576,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>1.032287458090905</v>
+        <v>1.032287458090938</v>
       </c>
       <c r="C382">
         <v>1</v>
@@ -4587,7 +4587,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>1.033462156441657</v>
+        <v>1.033462156441684</v>
       </c>
       <c r="C383">
         <v>1</v>
@@ -4598,7 +4598,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>1.03794108432023</v>
+        <v>1.037941084320137</v>
       </c>
       <c r="C384">
         <v>1</v>
@@ -4609,7 +4609,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>1.035248488484342</v>
+        <v>1.035248488484417</v>
       </c>
       <c r="C385">
         <v>1</v>
@@ -4620,7 +4620,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>1.040988423308219</v>
+        <v>1.040988423308137</v>
       </c>
       <c r="C386">
         <v>1</v>
@@ -4631,7 +4631,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>1.046124071631931</v>
+        <v>1.046124071632089</v>
       </c>
       <c r="C387">
         <v>1</v>
@@ -4642,7 +4642,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>1.045724239680198</v>
+        <v>1.045724239680325</v>
       </c>
       <c r="C388">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>1.045829793242528</v>
+        <v>1.04582979324263</v>
       </c>
       <c r="C389">
         <v>1</v>
@@ -4664,7 +4664,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>1.046881239346417</v>
+        <v>1.046881239346287</v>
       </c>
       <c r="C390">
         <v>1</v>
@@ -4675,7 +4675,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>1.044139998368137</v>
+        <v>1.044139998368362</v>
       </c>
       <c r="C391">
         <v>1</v>
@@ -4686,7 +4686,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>1.044502578905227</v>
+        <v>1.044502578905274</v>
       </c>
       <c r="C392">
         <v>1</v>
@@ -4697,7 +4697,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>1.047858824833369</v>
+        <v>1.047858824833481</v>
       </c>
       <c r="C393">
         <v>1</v>
@@ -4708,7 +4708,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>1.034509616107796</v>
+        <v>1.034509616107627</v>
       </c>
       <c r="C394">
         <v>1</v>
@@ -4719,7 +4719,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>1.034482431819238</v>
+        <v>1.034482431819186</v>
       </c>
       <c r="C395">
         <v>1</v>
@@ -4730,7 +4730,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>1.029288363636387</v>
+        <v>1.029288363636253</v>
       </c>
       <c r="C396">
         <v>1</v>
@@ -4741,7 +4741,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>1.02873063336679</v>
+        <v>1.02873063336692</v>
       </c>
       <c r="C397">
         <v>1</v>
@@ -4752,7 +4752,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>1.030279691327982</v>
+        <v>1.030279691328051</v>
       </c>
       <c r="C398">
         <v>1</v>
@@ -4763,7 +4763,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>1.032241776459389</v>
+        <v>1.032241776459361</v>
       </c>
       <c r="C399">
         <v>1</v>
@@ -4774,7 +4774,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>1.032602460387433</v>
+        <v>1.032602460387386</v>
       </c>
       <c r="C400">
         <v>1</v>
@@ -4785,7 +4785,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>1.034828305829476</v>
+        <v>1.034828305829468</v>
       </c>
       <c r="C401">
         <v>1</v>
@@ -4796,7 +4796,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>1.03113219348988</v>
+        <v>1.031132193489967</v>
       </c>
       <c r="C402">
         <v>1</v>
@@ -4807,7 +4807,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>1.03442728389416</v>
+        <v>1.03442728389413</v>
       </c>
       <c r="C403">
         <v>1</v>
@@ -4818,7 +4818,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>1.038692460361555</v>
+        <v>1.03869246036174</v>
       </c>
       <c r="C404">
         <v>1</v>
@@ -4829,7 +4829,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>1.034183858547214</v>
+        <v>1.034183858547187</v>
       </c>
       <c r="C405">
         <v>1</v>
@@ -4840,7 +4840,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>1.031087078741056</v>
+        <v>1.031087078741</v>
       </c>
       <c r="C406">
         <v>1</v>
@@ -4851,7 +4851,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>1.037523607840903</v>
+        <v>1.037523607840864</v>
       </c>
       <c r="C407">
         <v>1</v>
@@ -4862,7 +4862,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>1.03683134259803</v>
+        <v>1.03683134259797</v>
       </c>
       <c r="C408">
         <v>1</v>
@@ -4873,7 +4873,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>1.031330906117912</v>
+        <v>1.031330906117984</v>
       </c>
       <c r="C409">
         <v>1</v>
@@ -4884,7 +4884,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>1.040528449967673</v>
+        <v>1.040528449967494</v>
       </c>
       <c r="C410">
         <v>1</v>
@@ -4895,7 +4895,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>1.03612625091225</v>
+        <v>1.036126250912165</v>
       </c>
       <c r="C411">
         <v>1</v>
@@ -4906,7 +4906,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>1.03351093620817</v>
+        <v>1.033510936208257</v>
       </c>
       <c r="C412">
         <v>1</v>
@@ -4917,7 +4917,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>1.033304774763101</v>
+        <v>1.033304774762926</v>
       </c>
       <c r="C413">
         <v>1</v>
@@ -4928,7 +4928,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>1.026961543493448</v>
+        <v>1.026961543493359</v>
       </c>
       <c r="C414">
         <v>1</v>
@@ -4939,7 +4939,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>1.033576864257283</v>
+        <v>1.03357686425763</v>
       </c>
       <c r="C415">
         <v>1</v>
@@ -4950,7 +4950,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>1.03206134301137</v>
+        <v>1.032061343011439</v>
       </c>
       <c r="C416">
         <v>1</v>
@@ -4961,7 +4961,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>1.033035419780633</v>
+        <v>1.033035419780729</v>
       </c>
       <c r="C417">
         <v>1</v>
@@ -4972,7 +4972,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>1.036070121037629</v>
+        <v>1.036070121037361</v>
       </c>
       <c r="C418">
         <v>1</v>
@@ -4983,7 +4983,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>1.036852515588008</v>
+        <v>1.036852515587762</v>
       </c>
       <c r="C419">
         <v>1</v>
@@ -4994,7 +4994,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>1.044219619976959</v>
+        <v>1.044219619976707</v>
       </c>
       <c r="C420">
         <v>1</v>
@@ -5005,7 +5005,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>1.048901554416903</v>
+        <v>1.048901554416941</v>
       </c>
       <c r="C421">
         <v>1</v>
@@ -5016,7 +5016,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>1.044566467038227</v>
+        <v>1.044566467038238</v>
       </c>
       <c r="C422">
         <v>1</v>
@@ -5027,7 +5027,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>1.049685817484614</v>
+        <v>1.049685817484667</v>
       </c>
       <c r="C423">
         <v>1</v>
@@ -5038,10 +5038,10 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>1.039118450455475</v>
+        <v>1.039118450455514</v>
       </c>
       <c r="C424">
-        <v>0.9975923072366919</v>
+        <v>0.9975923072367122</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5049,10 +5049,10 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>1.043350429778495</v>
+        <v>1.043350429778466</v>
       </c>
       <c r="C425">
-        <v>0.9982237348771288</v>
+        <v>0.9982237348771029</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5060,10 +5060,10 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>1.036873186679621</v>
+        <v>1.036873186679713</v>
       </c>
       <c r="C426">
-        <v>0.9849371876586404</v>
+        <v>0.9849371876586496</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5071,10 +5071,10 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>1.040103237700511</v>
+        <v>1.040103237629997</v>
       </c>
       <c r="C427">
-        <v>0.9853828937610288</v>
+        <v>0.9853828937326941</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5082,10 +5082,10 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>1.04532747301938</v>
+        <v>1.045327473019446</v>
       </c>
       <c r="C428">
-        <v>0.9860829224342417</v>
+        <v>0.9860829224342772</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5093,10 +5093,10 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>1.046770868789955</v>
+        <v>1.046770868789908</v>
       </c>
       <c r="C429">
-        <v>0.986271915161086</v>
+        <v>0.9862719151610849</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5104,10 +5104,10 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>1.036032488979615</v>
+        <v>1.03603248897949</v>
       </c>
       <c r="C430">
-        <v>0.9726621896744265</v>
+        <v>0.9726621896744053</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5115,10 +5115,10 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>1.038445779471565</v>
+        <v>1.038445779471731</v>
       </c>
       <c r="C431">
-        <v>0.9729617239488991</v>
+        <v>0.972961723948938</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5126,10 +5126,10 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>1.037613939381214</v>
+        <v>1.037613939381264</v>
       </c>
       <c r="C432">
-        <v>0.9728595210388433</v>
+        <v>0.972859521038873</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5137,10 +5137,10 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>1.036908251057465</v>
+        <v>1.036908251057069</v>
       </c>
       <c r="C433">
-        <v>0.9727712835150695</v>
+        <v>0.9727712835149495</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5148,10 +5148,10 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>1.036338581112758</v>
+        <v>1.036338581112733</v>
       </c>
       <c r="C434">
-        <v>0.9726975268715614</v>
+        <v>0.9726975268715545</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5159,10 +5159,10 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>1.035074598572957</v>
+        <v>1.035074598573033</v>
       </c>
       <c r="C435">
-        <v>0.9725388388516392</v>
+        <v>0.9725388388516616</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5170,10 +5170,10 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>1.029451147292137</v>
+        <v>1.029451147291909</v>
       </c>
       <c r="C436">
-        <v>0.9718109572011103</v>
+        <v>0.9718109572010376</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5181,10 +5181,10 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>1.029665434707053</v>
+        <v>1.029665434706982</v>
       </c>
       <c r="C437">
-        <v>0.9718384440071228</v>
+        <v>0.9718384440071148</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5192,10 +5192,10 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>1.030668028861631</v>
+        <v>1.030668028861767</v>
       </c>
       <c r="C438">
-        <v>0.9719709697834183</v>
+        <v>0.9719709697834368</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5203,10 +5203,10 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>1.02723147978172</v>
+        <v>1.027231479781785</v>
       </c>
       <c r="C439">
-        <v>0.9715140653262896</v>
+        <v>0.9715140653262789</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5214,10 +5214,10 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>1.02369145837114</v>
+        <v>1.0236914583712</v>
       </c>
       <c r="C440">
-        <v>0.9710332995721949</v>
+        <v>0.9710332995722188</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5225,10 +5225,10 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>1.023910973922002</v>
+        <v>1.02391097392185</v>
       </c>
       <c r="C441">
-        <v>0.9710633041979183</v>
+        <v>0.9710633041978615</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5236,10 +5236,10 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>1.020687769845747</v>
+        <v>1.020687769845718</v>
       </c>
       <c r="C442">
-        <v>0.9706154271881119</v>
+        <v>0.97061542718813</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5247,10 +5247,10 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>1.016377454074005</v>
+        <v>1.016377454073895</v>
       </c>
       <c r="C443">
-        <v>0.9700008158901511</v>
+        <v>0.9700008158901282</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5258,10 +5258,10 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>1.014732497204939</v>
+        <v>1.014732497204924</v>
       </c>
       <c r="C444">
-        <v>0.9697623910917851</v>
+        <v>0.9697623910917389</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5269,10 +5269,10 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>1.013314457445497</v>
+        <v>1.013314457445365</v>
       </c>
       <c r="C445">
-        <v>0.9695549938396436</v>
+        <v>0.9695549938395752</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5280,10 +5280,10 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>1.014406905568905</v>
+        <v>1.014406905569032</v>
       </c>
       <c r="C446">
-        <v>0.9697163777838191</v>
+        <v>0.9697163777838509</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5291,10 +5291,10 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>1.008117817655048</v>
+        <v>1.00811781765512</v>
       </c>
       <c r="C447">
-        <v>0.9687772506424147</v>
+        <v>0.9687772506424516</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5302,10 +5302,10 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>1.002947979266908</v>
+        <v>1.002947979267183</v>
       </c>
       <c r="C448">
-        <v>0.9679779697632029</v>
+        <v>0.9679779697633187</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5313,10 +5313,10 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>1.000723245786787</v>
+        <v>1.000723245786723</v>
       </c>
       <c r="C449">
-        <v>0.9676283692063419</v>
+        <v>0.967628369206329</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5324,10 +5324,10 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>1.000662436753595</v>
+        <v>1.000662436753536</v>
       </c>
       <c r="C450">
-        <v>0.9676191154782747</v>
+        <v>0.9676191154782604</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5338,7 +5338,7 @@
         <v>1</v>
       </c>
       <c r="C451">
-        <v>0.9670658251791887</v>
+        <v>0.9670658251791503</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5349,7 +5349,7 @@
         <v>1</v>
       </c>
       <c r="C452">
-        <v>0.9642498324652752</v>
+        <v>0.9642498324653308</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5360,7 +5360,7 @@
         <v>1</v>
       </c>
       <c r="C453">
-        <v>0.9641383665710584</v>
+        <v>0.9641383665710156</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5371,7 +5371,7 @@
         <v>1</v>
       </c>
       <c r="C454">
-        <v>0.9624805457197247</v>
+        <v>0.9624805457197476</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5382,7 +5382,7 @@
         <v>1</v>
       </c>
       <c r="C455">
-        <v>0.959451960736554</v>
+        <v>0.9594519607364981</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5393,7 +5393,7 @@
         <v>1</v>
       </c>
       <c r="C456">
-        <v>0.9522814214735423</v>
+        <v>0.9522814214735107</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5404,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="C457">
-        <v>0.9531747188656229</v>
+        <v>0.9531747188656357</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5415,7 +5415,7 @@
         <v>1</v>
       </c>
       <c r="C458">
-        <v>0.9609757984691227</v>
+        <v>0.9609757984692922</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5426,7 +5426,7 @@
         <v>1</v>
       </c>
       <c r="C459">
-        <v>0.9522708870876119</v>
+        <v>0.9522708870878674</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5437,7 +5437,7 @@
         <v>1</v>
       </c>
       <c r="C460">
-        <v>0.9603893259218531</v>
+        <v>0.9603893259218631</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5448,7 +5448,7 @@
         <v>1</v>
       </c>
       <c r="C461">
-        <v>0.9528220976925134</v>
+        <v>0.9528220976925984</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5456,10 +5456,10 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>1.006644349115009</v>
+        <v>1.006644349115082</v>
       </c>
       <c r="C462">
-        <v>0.9597474706789376</v>
+        <v>0.9597474706790502</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5467,10 +5467,10 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>1.006720456114558</v>
+        <v>1.006720456114559</v>
       </c>
       <c r="C463">
-        <v>0.9600852139087434</v>
+        <v>0.9600852139087553</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5478,10 +5478,10 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>1.005443586126964</v>
+        <v>1.005443586126939</v>
       </c>
       <c r="C464">
-        <v>0.9545153839804754</v>
+        <v>0.9545153839803717</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5489,10 +5489,10 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>1.005460929882706</v>
+        <v>1.005460929882674</v>
       </c>
       <c r="C465">
-        <v>0.9545884840976332</v>
+        <v>0.9545884840975749</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5500,10 +5500,10 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>1.020066454251422</v>
+        <v>1.020066454251444</v>
       </c>
       <c r="C466">
-        <v>0.9652841669113205</v>
+        <v>0.9652841669113466</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5511,10 +5511,10 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>1.020532996348082</v>
+        <v>1.02053299634809</v>
       </c>
       <c r="C467">
-        <v>0.9672891423833951</v>
+        <v>0.9672891423834257</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5522,10 +5522,10 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>1.021377668505315</v>
+        <v>1.021377668505296</v>
       </c>
       <c r="C468">
-        <v>0.9709477334781106</v>
+        <v>0.9709477334781096</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5533,10 +5533,10 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>1.022081634189009</v>
+        <v>1.022081634189046</v>
       </c>
       <c r="C469">
-        <v>0.9740171469079104</v>
+        <v>0.9740171469080335</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5544,10 +5544,10 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>1.023323586369851</v>
+        <v>1.023323586369828</v>
       </c>
       <c r="C470">
-        <v>0.979494502554478</v>
+        <v>0.9794945025544975</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5555,10 +5555,10 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>1.024040051852522</v>
+        <v>1.024040051852545</v>
       </c>
       <c r="C471">
-        <v>0.9826891972334271</v>
+        <v>0.9826891972334718</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5566,10 +5566,10 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>1.02504922090793</v>
+        <v>1.025049220907957</v>
       </c>
       <c r="C472">
-        <v>0.9872274358532926</v>
+        <v>0.9872274358533374</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5577,10 +5577,10 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>1.027280397599028</v>
+        <v>1.027280397599031</v>
       </c>
       <c r="C473">
-        <v>0.9974736711454741</v>
+        <v>0.9974736711454069</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5588,10 +5588,10 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>1.027298451346366</v>
+        <v>1.027298451346339</v>
       </c>
       <c r="C474">
-        <v>0.9975576946554408</v>
+        <v>0.9975576946553607</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5599,7 +5599,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>1.028475798544984</v>
+        <v>1.028475798544974</v>
       </c>
       <c r="C475">
         <v>1</v>
@@ -5610,7 +5610,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>1.030860107608827</v>
+        <v>1.030860107608849</v>
       </c>
       <c r="C476">
         <v>1</v>
@@ -5621,7 +5621,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>1.031451863687856</v>
+        <v>1.031451863687819</v>
       </c>
       <c r="C477">
         <v>1</v>
@@ -5632,7 +5632,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>1.033023677524241</v>
+        <v>1.033023677524221</v>
       </c>
       <c r="C478">
         <v>1</v>
@@ -5643,7 +5643,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>1.034305981825101</v>
+        <v>1.034305981825108</v>
       </c>
       <c r="C479">
         <v>1</v>
@@ -5654,7 +5654,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>1.034678651876716</v>
+        <v>1.034678651876683</v>
       </c>
       <c r="C480">
         <v>1</v>
@@ -5665,7 +5665,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>1.037373873483945</v>
+        <v>1.03737387348391</v>
       </c>
       <c r="C481">
         <v>1</v>
@@ -5676,7 +5676,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>1.046203211094283</v>
+        <v>1.046203211094152</v>
       </c>
       <c r="C482">
         <v>1</v>
@@ -5687,7 +5687,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>1.045170443546277</v>
+        <v>1.045170443546417</v>
       </c>
       <c r="C483">
         <v>1</v>
@@ -5698,7 +5698,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>1.046183945179987</v>
+        <v>1.046183945180048</v>
       </c>
       <c r="C484">
         <v>1</v>
@@ -5709,7 +5709,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>1.047591086323956</v>
+        <v>1.04759108632397</v>
       </c>
       <c r="C485">
         <v>1</v>
@@ -5720,7 +5720,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>1.046016011653098</v>
+        <v>1.046016011652866</v>
       </c>
       <c r="C486">
         <v>1</v>
@@ -5731,7 +5731,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>1.043969456897294</v>
+        <v>1.043969456897093</v>
       </c>
       <c r="C487">
         <v>1</v>
@@ -5742,7 +5742,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>1.043292988841455</v>
+        <v>1.043292988841385</v>
       </c>
       <c r="C488">
         <v>1</v>
@@ -5753,7 +5753,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>1.046120030056961</v>
+        <v>1.046120030057116</v>
       </c>
       <c r="C489">
         <v>1</v>
@@ -5764,7 +5764,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>1.043444378736943</v>
+        <v>1.043444378736828</v>
       </c>
       <c r="C490">
         <v>1</v>
@@ -5775,7 +5775,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>1.047575913127841</v>
+        <v>1.047575913127703</v>
       </c>
       <c r="C491">
         <v>1</v>
@@ -5786,7 +5786,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>1.043138456663117</v>
+        <v>1.043138456662966</v>
       </c>
       <c r="C492">
         <v>1</v>
@@ -5797,7 +5797,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>1.043177880000677</v>
+        <v>1.043177880000879</v>
       </c>
       <c r="C493">
         <v>1</v>
@@ -5808,7 +5808,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>1.045498726831753</v>
+        <v>1.04549872683178</v>
       </c>
       <c r="C494">
         <v>1</v>
@@ -5819,7 +5819,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>1.046344741540228</v>
+        <v>1.046344741540355</v>
       </c>
       <c r="C495">
         <v>1</v>
@@ -5830,7 +5830,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>1.049869864928693</v>
+        <v>1.049869864928733</v>
       </c>
       <c r="C496">
         <v>1</v>
@@ -5841,7 +5841,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>1.043852375689888</v>
+        <v>1.043852375689814</v>
       </c>
       <c r="C497">
         <v>1</v>
@@ -5852,7 +5852,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>1.046018380619385</v>
+        <v>1.04601838061935</v>
       </c>
       <c r="C498">
         <v>1</v>
@@ -5863,7 +5863,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>1.04832934717865</v>
+        <v>1.048329347178546</v>
       </c>
       <c r="C499">
         <v>1</v>
@@ -5874,7 +5874,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>1.045894309382981</v>
+        <v>1.045894309383011</v>
       </c>
       <c r="C500">
         <v>1</v>
@@ -5885,7 +5885,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>1.049853074833772</v>
+        <v>1.049853074833696</v>
       </c>
       <c r="C501">
         <v>1</v>
@@ -5896,7 +5896,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>1.049801231779129</v>
+        <v>1.049801231779142</v>
       </c>
       <c r="C502">
         <v>1</v>
@@ -5907,7 +5907,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>1.037710748220972</v>
+        <v>1.037710748221111</v>
       </c>
       <c r="C503">
         <v>1</v>
@@ -5918,7 +5918,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>1.035344424467333</v>
+        <v>1.035344424467432</v>
       </c>
       <c r="C504">
         <v>1</v>
@@ -5929,7 +5929,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>1.042822787723269</v>
+        <v>1.042822787723463</v>
       </c>
       <c r="C505">
         <v>1</v>
@@ -5940,7 +5940,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>1.039165633315397</v>
+        <v>1.039165633315351</v>
       </c>
       <c r="C506">
         <v>1</v>
@@ -5951,7 +5951,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>1.03911762178445</v>
+        <v>1.039117621784464</v>
       </c>
       <c r="C507">
         <v>1</v>
@@ -5962,7 +5962,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>1.03898157273044</v>
+        <v>1.038981572730556</v>
       </c>
       <c r="C508">
         <v>1</v>
@@ -5973,7 +5973,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>1.035922254036011</v>
+        <v>1.035922254036056</v>
       </c>
       <c r="C509">
         <v>1</v>
@@ -5984,7 +5984,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>1.042518905232982</v>
+        <v>1.042518905232962</v>
       </c>
       <c r="C510">
         <v>1</v>
@@ -5995,7 +5995,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>1.045770484030731</v>
+        <v>1.045770484030764</v>
       </c>
       <c r="C511">
         <v>1</v>
@@ -6006,7 +6006,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>1.04063208246503</v>
+        <v>1.040632082464947</v>
       </c>
       <c r="C512">
         <v>1</v>
@@ -6017,7 +6017,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>1.04710862364845</v>
+        <v>1.047108623648399</v>
       </c>
       <c r="C513">
         <v>1</v>
@@ -6028,7 +6028,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>1.049092777714609</v>
+        <v>1.049092777714546</v>
       </c>
       <c r="C514">
         <v>1</v>
@@ -6039,7 +6039,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>1.03686835727358</v>
+        <v>1.036868357273542</v>
       </c>
       <c r="C515">
         <v>1</v>
@@ -6050,7 +6050,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>1.032626352453392</v>
+        <v>1.032626352453258</v>
       </c>
       <c r="C516">
         <v>1</v>
@@ -6061,7 +6061,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>1.043494698574864</v>
+        <v>1.043494698574764</v>
       </c>
       <c r="C517">
         <v>1</v>
@@ -6072,7 +6072,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>1.042790679852124</v>
+        <v>1.042790679851922</v>
       </c>
       <c r="C518">
         <v>1</v>
@@ -6083,7 +6083,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>1.041583181390024</v>
+        <v>1.041583181390134</v>
       </c>
       <c r="C519">
         <v>1</v>
@@ -6094,7 +6094,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>1.047862982707559</v>
+        <v>1.047862982707627</v>
       </c>
       <c r="C520">
         <v>1</v>
@@ -6105,7 +6105,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>1.049711482293004</v>
+        <v>1.049711482293038</v>
       </c>
       <c r="C521">
         <v>1</v>
@@ -6116,7 +6116,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>1.049773290516601</v>
+        <v>1.04977329051662</v>
       </c>
       <c r="C522">
         <v>1</v>
@@ -6127,7 +6127,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>1.048926778004075</v>
+        <v>1.048926778004015</v>
       </c>
       <c r="C523">
         <v>1</v>
@@ -6138,7 +6138,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>1.04932434846786</v>
+        <v>1.049324348467754</v>
       </c>
       <c r="C524">
         <v>1</v>
@@ -6149,10 +6149,10 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>1.037274095960755</v>
+        <v>1.037274095960749</v>
       </c>
       <c r="C525">
-        <v>0.9973059740682224</v>
+        <v>0.9973059740681759</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6160,10 +6160,10 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>1.040411719364413</v>
+        <v>1.040411719364392</v>
       </c>
       <c r="C526">
-        <v>0.9977799217710418</v>
+        <v>0.9977799217710617</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6171,10 +6171,10 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>1.038009528194836</v>
+        <v>1.038009528194808</v>
       </c>
       <c r="C527">
-        <v>0.9974169423370679</v>
+        <v>0.9974169423370478</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6182,10 +6182,10 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>1.042021506601448</v>
+        <v>1.042021506601628</v>
       </c>
       <c r="C528">
-        <v>0.9980195067620099</v>
+        <v>0.9980195067620733</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6193,10 +6193,10 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>1.041711225517341</v>
+        <v>1.041711225517454</v>
       </c>
       <c r="C529">
-        <v>0.9979735635410394</v>
+        <v>0.9979735635410916</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6204,10 +6204,10 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>1.041935989448661</v>
+        <v>1.041935989448976</v>
       </c>
       <c r="C530">
-        <v>0.9980070729991041</v>
+        <v>0.9980070729991963</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6215,10 +6215,10 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>1.044781363503347</v>
+        <v>1.044781363503004</v>
       </c>
       <c r="C531">
-        <v>0.9984267079623701</v>
+        <v>0.9984267079622621</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6226,10 +6226,10 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>1.040076271103819</v>
+        <v>1.040076271103908</v>
       </c>
       <c r="C532">
-        <v>0.9977294022866493</v>
+        <v>0.997729402286651</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6237,10 +6237,10 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>1.043132241451199</v>
+        <v>1.043132241451388</v>
       </c>
       <c r="C533">
-        <v>0.9981845600175928</v>
+        <v>0.9981845600176518</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6248,10 +6248,10 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>1.038310565182037</v>
+        <v>1.038310565181873</v>
       </c>
       <c r="C534">
-        <v>0.9974628155089492</v>
+        <v>0.9974628155089129</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6259,10 +6259,10 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>1.039086990245613</v>
+        <v>1.039086990245573</v>
       </c>
       <c r="C535">
-        <v>0.9975803943530247</v>
+        <v>0.9975803943529998</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6270,10 +6270,10 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>1.035678703069257</v>
+        <v>1.03567870306921</v>
       </c>
       <c r="C536">
-        <v>0.9970609026236832</v>
+        <v>0.9970609026236917</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6281,10 +6281,10 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>1.035849772536276</v>
+        <v>1.035849772536165</v>
       </c>
       <c r="C537">
-        <v>0.9970883293790345</v>
+        <v>0.9970883293789978</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6292,10 +6292,10 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>1.031619007841871</v>
+        <v>1.031619007841866</v>
       </c>
       <c r="C538">
-        <v>0.9964289734513527</v>
+        <v>0.9964289734513631</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6303,10 +6303,10 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>1.029253165422407</v>
+        <v>1.029253165422334</v>
       </c>
       <c r="C539">
-        <v>0.9960542322309053</v>
+        <v>0.9960542322308905</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6314,10 +6314,10 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>1.029898876227039</v>
+        <v>1.029898876226887</v>
       </c>
       <c r="C540">
-        <v>0.9961578744190515</v>
+        <v>0.9961578744189805</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6325,10 +6325,10 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>1.024460976451962</v>
+        <v>1.024460976452058</v>
       </c>
       <c r="C541">
-        <v>0.995279687408029</v>
+        <v>0.9952796874080675</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6336,10 +6336,10 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>1.018063403897917</v>
+        <v>1.018063403897896</v>
       </c>
       <c r="C542">
-        <v>0.9942168111951878</v>
+        <v>0.9942168111951467</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6347,10 +6347,10 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>1.018247304524793</v>
+        <v>1.018247304524698</v>
       </c>
       <c r="C543">
-        <v>0.9942498079267715</v>
+        <v>0.9942498079267416</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6358,10 +6358,10 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>1.013078538462106</v>
+        <v>1.013078538462301</v>
       </c>
       <c r="C544">
-        <v>0.9933667665517898</v>
+        <v>0.9933667665518592</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6369,10 +6369,10 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>1.012268210577993</v>
+        <v>1.012268210578125</v>
       </c>
       <c r="C545">
-        <v>0.9932276940642243</v>
+        <v>0.9932276940642316</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6380,10 +6380,10 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>1.00664016583431</v>
+        <v>1.00664016583415</v>
       </c>
       <c r="C546">
-        <v>0.9922401670071076</v>
+        <v>0.9922401670070391</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6391,10 +6391,10 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>1.00088457216846</v>
+        <v>1.000884572168469</v>
       </c>
       <c r="C547">
-        <v>0.9912047664201575</v>
+        <v>0.9912047664201669</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6405,7 +6405,7 @@
         <v>1</v>
       </c>
       <c r="C548">
-        <v>0.9900729497661007</v>
+        <v>0.9900729497661324</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6416,7 +6416,7 @@
         <v>1</v>
       </c>
       <c r="C549">
-        <v>0.9858086559319573</v>
+        <v>0.9858086559320265</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6427,7 +6427,7 @@
         <v>1</v>
       </c>
       <c r="C550">
-        <v>0.9851241700902821</v>
+        <v>0.9851241700903032</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6438,7 +6438,7 @@
         <v>1</v>
       </c>
       <c r="C551">
-        <v>0.9703277570370268</v>
+        <v>0.9703277570370139</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6449,7 +6449,7 @@
         <v>1</v>
       </c>
       <c r="C552">
-        <v>0.9608749843754566</v>
+        <v>0.9608749843755232</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6460,7 +6460,7 @@
         <v>1</v>
       </c>
       <c r="C553">
-        <v>0.9517528561132481</v>
+        <v>0.9517528561132171</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6471,7 +6471,7 @@
         <v>1</v>
       </c>
       <c r="C554">
-        <v>0.9553988984337246</v>
+        <v>0.9553988984336154</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6479,10 +6479,10 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>1.007350442450716</v>
+        <v>1.007350442450751</v>
       </c>
       <c r="C555">
-        <v>0.9628665145777068</v>
+        <v>0.9628665145779018</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6490,10 +6490,10 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>1.006995720413313</v>
+        <v>1.006995720413312</v>
       </c>
       <c r="C556">
-        <v>0.9613017515493442</v>
+        <v>0.9613017515492979</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6501,10 +6501,10 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>1.006270398740452</v>
+        <v>1.00627039874043</v>
       </c>
       <c r="C557">
-        <v>0.9581189192861694</v>
+        <v>0.9581189192861155</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6512,10 +6512,10 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>1.019525102282153</v>
+        <v>1.01952510228212</v>
       </c>
       <c r="C558">
-        <v>0.9629694569276939</v>
+        <v>0.9629694569276309</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6523,10 +6523,10 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>1.018228784547855</v>
+        <v>1.018228784547924</v>
       </c>
       <c r="C559">
-        <v>0.957470982463514</v>
+        <v>0.9574709824637238</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6534,10 +6534,10 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>1.018818605000168</v>
+        <v>1.018818605075541</v>
       </c>
       <c r="C560">
-        <v>0.9599658255655173</v>
+        <v>0.9599658257478183</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6545,10 +6545,10 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>1.02033042368514</v>
+        <v>1.02033042368512</v>
       </c>
       <c r="C561">
-        <v>0.9664173508333463</v>
+        <v>0.9664173508332466</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6556,10 +6556,10 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>1.035801461686017</v>
+        <v>1.035801461686021</v>
       </c>
       <c r="C562">
-        <v>0.9792087177307813</v>
+        <v>0.9792087177308729</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6567,10 +6567,10 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>1.034339838165271</v>
+        <v>1.034339838165276</v>
       </c>
       <c r="C563">
-        <v>0.9730027247232568</v>
+        <v>0.9730027247233204</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6578,10 +6578,10 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>1.035890188306111</v>
+        <v>1.035890188306161</v>
       </c>
       <c r="C564">
-        <v>0.9795933285540129</v>
+        <v>0.9795933285541643</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6589,10 +6589,10 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>1.036218225729761</v>
+        <v>1.036218225729754</v>
       </c>
       <c r="C565">
-        <v>0.98100122230394</v>
+        <v>0.9810012223038955</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6600,10 +6600,10 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>1.03573793746157</v>
+        <v>1.035737937461564</v>
       </c>
       <c r="C566">
-        <v>0.9789379491711079</v>
+        <v>0.978937949171109</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6611,10 +6611,10 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>1.037817602028024</v>
+        <v>1.037817602027996</v>
       </c>
       <c r="C567">
-        <v>0.9879224224318727</v>
+        <v>0.9879224224317749</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6622,10 +6622,10 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>1.039683783320953</v>
+        <v>1.039683783320964</v>
       </c>
       <c r="C568">
-        <v>0.9961525370753718</v>
+        <v>0.9961525370753913</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6633,7 +6633,7 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>1.041297931980459</v>
+        <v>1.041297931980522</v>
       </c>
       <c r="C569">
         <v>1</v>
@@ -6644,7 +6644,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>1.041045584854259</v>
+        <v>1.041045584854269</v>
       </c>
       <c r="C570">
         <v>1</v>
@@ -6655,7 +6655,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>1.043502974712874</v>
+        <v>1.043502974712907</v>
       </c>
       <c r="C571">
         <v>1</v>
@@ -6666,7 +6666,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>1.046241612017818</v>
+        <v>1.046241612017916</v>
       </c>
       <c r="C572">
         <v>1</v>
@@ -6688,7 +6688,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>1.048275851116462</v>
+        <v>1.048275851116468</v>
       </c>
       <c r="C574">
         <v>1</v>
@@ -6699,7 +6699,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>1.049734219451551</v>
+        <v>1.049734219451593</v>
       </c>
       <c r="C575">
         <v>1</v>
@@ -6710,7 +6710,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>1.034212855013082</v>
+        <v>1.034212855013071</v>
       </c>
       <c r="C576">
         <v>1</v>
@@ -6721,7 +6721,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>1.034367152140366</v>
+        <v>1.034367152140391</v>
       </c>
       <c r="C577">
         <v>1</v>
@@ -6732,7 +6732,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>1.04287313165021</v>
+        <v>1.042873131649996</v>
       </c>
       <c r="C578">
         <v>1</v>
@@ -6743,7 +6743,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>1.03909015046374</v>
+        <v>1.03909015046371</v>
       </c>
       <c r="C579">
         <v>1</v>
@@ -6754,7 +6754,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>1.042705722193815</v>
+        <v>1.04270572219389</v>
       </c>
       <c r="C580">
         <v>1</v>
@@ -6765,7 +6765,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>1.04388566400654</v>
+        <v>1.04388566400667</v>
       </c>
       <c r="C581">
         <v>1</v>
@@ -6776,7 +6776,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>1.042773413146805</v>
+        <v>1.042773413146704</v>
       </c>
       <c r="C582">
         <v>1</v>
@@ -6787,7 +6787,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>1.045989778242413</v>
+        <v>1.045989778242489</v>
       </c>
       <c r="C583">
         <v>1</v>
@@ -6798,7 +6798,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>1.041335577635104</v>
+        <v>1.041335577634898</v>
       </c>
       <c r="C584">
         <v>1</v>
@@ -6809,7 +6809,7 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>1.041785835890533</v>
+        <v>1.041785835890582</v>
       </c>
       <c r="C585">
         <v>1</v>
@@ -6820,7 +6820,7 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>1.04441974407238</v>
+        <v>1.044419744072392</v>
       </c>
       <c r="C586">
         <v>1</v>
@@ -6831,7 +6831,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>1.047395719520645</v>
+        <v>1.047395719520487</v>
       </c>
       <c r="C587">
         <v>1</v>
@@ -6842,7 +6842,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>1.049440519091476</v>
+        <v>1.049440519091547</v>
       </c>
       <c r="C588">
         <v>1</v>
@@ -6853,7 +6853,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>1.047094118563078</v>
+        <v>1.047094118562863</v>
       </c>
       <c r="C589">
         <v>1</v>
@@ -6864,7 +6864,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>1.046507390810916</v>
+        <v>1.046507390810767</v>
       </c>
       <c r="C590">
         <v>1</v>
@@ -6875,7 +6875,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>1.04451335250048</v>
+        <v>1.044513352500568</v>
       </c>
       <c r="C591">
         <v>1</v>
@@ -6886,7 +6886,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>1.045628346305478</v>
+        <v>1.045628346305508</v>
       </c>
       <c r="C592">
         <v>1</v>
@@ -6897,7 +6897,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>1.048253654421461</v>
+        <v>1.0482536544214</v>
       </c>
       <c r="C593">
         <v>1</v>
@@ -6908,7 +6908,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>1.046195848362267</v>
+        <v>1.046195848362083</v>
       </c>
       <c r="C594">
         <v>1</v>
@@ -6919,7 +6919,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>1.048029390244253</v>
+        <v>1.048029390244138</v>
       </c>
       <c r="C595">
         <v>1</v>
@@ -6930,7 +6930,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>1.049777164594693</v>
+        <v>1.04977716459475</v>
       </c>
       <c r="C596">
         <v>1</v>
@@ -6941,7 +6941,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>1.04697149656661</v>
+        <v>1.046971496566852</v>
       </c>
       <c r="C597">
         <v>1</v>
@@ -6952,7 +6952,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>1.049369462364872</v>
+        <v>1.049369462364926</v>
       </c>
       <c r="C598">
         <v>1</v>
@@ -6963,7 +6963,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>1.037310436294806</v>
+        <v>1.037310436294726</v>
       </c>
       <c r="C599">
         <v>1</v>
@@ -6974,7 +6974,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>1.044488290593868</v>
+        <v>1.044488290593686</v>
       </c>
       <c r="C600">
         <v>1</v>
@@ -6985,7 +6985,7 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>1.04309535262605</v>
+        <v>1.043095352626061</v>
       </c>
       <c r="C601">
         <v>1</v>
@@ -6996,7 +6996,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>1.049680403253</v>
+        <v>1.049680403252895</v>
       </c>
       <c r="C602">
         <v>1</v>
@@ -7007,7 +7007,7 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>1.04738544669511</v>
+        <v>1.047385446695127</v>
       </c>
       <c r="C603">
         <v>1</v>
@@ -7018,7 +7018,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>1.039441934928025</v>
+        <v>1.039441934928129</v>
       </c>
       <c r="C604">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>1.045862679248746</v>
+        <v>1.045862679248656</v>
       </c>
       <c r="C605">
         <v>1</v>
@@ -7040,7 +7040,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>1.041539605379898</v>
+        <v>1.041539605379787</v>
       </c>
       <c r="C606">
         <v>1</v>
@@ -7051,7 +7051,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>1.043239003060494</v>
+        <v>1.043239003060374</v>
       </c>
       <c r="C607">
         <v>1</v>
@@ -7062,7 +7062,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>1.047632042540132</v>
+        <v>1.04763204254024</v>
       </c>
       <c r="C608">
         <v>1</v>
@@ -7073,10 +7073,10 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>1.039258853477745</v>
+        <v>1.039258853477769</v>
       </c>
       <c r="C609">
-        <v>0.9976227987873094</v>
+        <v>0.997622798787297</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7084,10 +7084,10 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>1.045298240250367</v>
+        <v>1.045298240250269</v>
       </c>
       <c r="C610">
-        <v>0.9985192766249213</v>
+        <v>0.9985192766249078</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7095,10 +7095,10 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>1.040205849961978</v>
+        <v>1.040205849961858</v>
       </c>
       <c r="C611">
-        <v>0.9977634029700254</v>
+        <v>0.9977634029699821</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7106,10 +7106,10 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>1.040186606670376</v>
+        <v>1.04018660667027</v>
       </c>
       <c r="C612">
-        <v>0.9977593742357228</v>
+        <v>0.9977593742356661</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7117,10 +7117,10 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>1.041502795924563</v>
+        <v>1.041502795924568</v>
       </c>
       <c r="C613">
-        <v>0.9979536262760891</v>
+        <v>0.9979536262760479</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7128,10 +7128,10 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>1.039440681816719</v>
+        <v>1.039440681816649</v>
       </c>
       <c r="C614">
-        <v>0.9976428983746181</v>
+        <v>0.9976428983745872</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7139,10 +7139,10 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>1.040752955783102</v>
+        <v>1.040752955782983</v>
       </c>
       <c r="C615">
-        <v>0.9978388296477559</v>
+        <v>0.997838829647716</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7150,10 +7150,10 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>1.038052209009847</v>
+        <v>1.038052209009846</v>
       </c>
       <c r="C616">
-        <v>0.9974300080633838</v>
+        <v>0.9974300080633965</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7161,10 +7161,10 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>1.034147002230889</v>
+        <v>1.034147002230837</v>
       </c>
       <c r="C617">
-        <v>0.9968265772390381</v>
+        <v>0.996826577238993</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7172,10 +7172,10 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>1.03700465097164</v>
+        <v>1.037004650971649</v>
       </c>
       <c r="C618">
-        <v>0.9972664807669637</v>
+        <v>0.9972664807669767</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7183,10 +7183,10 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>1.028093439433408</v>
+        <v>1.028093439433347</v>
       </c>
       <c r="C619">
-        <v>0.9958660066193691</v>
+        <v>0.9958660066193511</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7194,10 +7194,10 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>1.029946035686337</v>
+        <v>1.029946035686459</v>
       </c>
       <c r="C620">
-        <v>0.9961606628890124</v>
+        <v>0.9961606628890622</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7205,10 +7205,10 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>1.020273487776585</v>
+        <v>1.020273487776468</v>
       </c>
       <c r="C621">
-        <v>0.9945806108526695</v>
+        <v>0.9945806108526367</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7216,10 +7216,10 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>1.024594330881068</v>
+        <v>1.024594330881008</v>
       </c>
       <c r="C622">
-        <v>0.9952934645973828</v>
+        <v>0.995293464597334</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7227,10 +7227,10 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>1.019765870293474</v>
+        <v>1.019765870293351</v>
       </c>
       <c r="C623">
-        <v>0.9944934444786847</v>
+        <v>0.9944934444786715</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7238,10 +7238,10 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>1.02011299273909</v>
+        <v>1.02011299273905</v>
       </c>
       <c r="C624">
-        <v>0.9945500492536046</v>
+        <v>0.9945500492535893</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7249,10 +7249,10 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>1.016600121468908</v>
+        <v>1.01660012146882</v>
       </c>
       <c r="C625">
-        <v>0.99395658584123</v>
+        <v>0.9939565858411639</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7260,10 +7260,10 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>1.006716724417364</v>
+        <v>1.006716724417276</v>
       </c>
       <c r="C626">
-        <v>0.9922365534148925</v>
+        <v>0.9922365534148639</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7271,10 +7271,10 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>1.008475076837736</v>
+        <v>1.008475076837509</v>
       </c>
       <c r="C627">
-        <v>0.9925491742420079</v>
+        <v>0.9925491742419664</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7282,10 +7282,10 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>1.008917182074666</v>
+        <v>1.008917182074537</v>
       </c>
       <c r="C628">
-        <v>0.9926270318101726</v>
+        <v>0.992627031810114</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7293,10 +7293,10 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>1.00588128788663</v>
+        <v>1.005881287886523</v>
       </c>
       <c r="C629">
-        <v>0.9920894467945307</v>
+        <v>0.992089446794497</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7304,10 +7304,10 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>1.010567793489231</v>
+        <v>1.010567793489302</v>
       </c>
       <c r="C630">
-        <v>0.9929179268778867</v>
+        <v>0.9929179268779047</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7315,10 +7315,10 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>1.014666268022717</v>
+        <v>1.014666268022711</v>
       </c>
       <c r="C631">
-        <v>0.9936282732487921</v>
+        <v>0.9936282732487779</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7326,10 +7326,10 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>1.016008506418826</v>
+        <v>1.016008506418685</v>
       </c>
       <c r="C632">
-        <v>0.9938592954850161</v>
+        <v>0.9938592954849539</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7337,10 +7337,10 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>1.011350168404776</v>
+        <v>1.011350168404893</v>
       </c>
       <c r="C633">
-        <v>0.9930580511959093</v>
+        <v>0.9930580511959582</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7348,10 +7348,10 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>1.018099391625145</v>
+        <v>1.018099391625138</v>
       </c>
       <c r="C634">
-        <v>0.9942165654597219</v>
+        <v>0.9942165654597233</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7359,10 +7359,10 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>1.017651982023665</v>
+        <v>1.017651982023756</v>
       </c>
       <c r="C635">
-        <v>0.9941427683890368</v>
+        <v>0.9941427683890669</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7370,10 +7370,10 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>1.018141872032476</v>
+        <v>1.018141872032423</v>
       </c>
       <c r="C636">
-        <v>0.9942261225298246</v>
+        <v>0.9942261225298223</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7381,10 +7381,10 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>1.025075455565103</v>
+        <v>1.025075455565098</v>
       </c>
       <c r="C637">
-        <v>0.995379786251785</v>
+        <v>0.9953797862517528</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7392,10 +7392,10 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>1.022197375326037</v>
+        <v>1.02219737532601</v>
       </c>
       <c r="C638">
-        <v>0.9949084805042332</v>
+        <v>0.994908480504191</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7403,10 +7403,10 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>1.024460620064207</v>
+        <v>1.024460620064097</v>
       </c>
       <c r="C639">
-        <v>0.9952820083596323</v>
+        <v>0.995282008359589</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7414,10 +7414,10 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>1.020646506810346</v>
+        <v>1.02064650681035</v>
       </c>
       <c r="C640">
-        <v>0.9946529475585471</v>
+        <v>0.9946529475585606</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7425,10 +7425,10 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>1.01670367487601</v>
+        <v>1.016703674876063</v>
       </c>
       <c r="C641">
-        <v>0.9939889426996317</v>
+        <v>0.9939889426996533</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7436,10 +7436,10 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>1.019341448102096</v>
+        <v>1.019341448102048</v>
       </c>
       <c r="C642">
-        <v>0.9944364954796132</v>
+        <v>0.9944364954796202</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7447,10 +7447,10 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>1.006053637987117</v>
+        <v>1.006053637987156</v>
       </c>
       <c r="C643">
-        <v>0.9921372557634648</v>
+        <v>0.9921372557634717</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7458,10 +7458,10 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>1.012471001194162</v>
+        <v>1.012471001194163</v>
       </c>
       <c r="C644">
-        <v>0.9932660285439361</v>
+        <v>0.9932660285439247</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7469,10 +7469,10 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>1.000141210565224</v>
+        <v>1.000141210565108</v>
       </c>
       <c r="C645">
-        <v>0.9910712984235294</v>
+        <v>0.9910712984235041</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7480,10 +7480,10 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>1.001194848384062</v>
+        <v>1.00119484838414</v>
       </c>
       <c r="C646">
-        <v>0.9912641605797123</v>
+        <v>0.9912641605797118</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7494,7 +7494,7 @@
         <v>1</v>
       </c>
       <c r="C647">
-        <v>0.9897479375059576</v>
+        <v>0.9897479375058919</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7505,7 +7505,7 @@
         <v>1</v>
       </c>
       <c r="C648">
-        <v>0.9890486043919519</v>
+        <v>0.9890486043920391</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7516,7 +7516,7 @@
         <v>1</v>
       </c>
       <c r="C649">
-        <v>0.9876527802052522</v>
+        <v>0.9876527802054282</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7527,7 +7527,7 @@
         <v>1</v>
       </c>
       <c r="C650">
-        <v>0.9824701108719521</v>
+        <v>0.9824701108720234</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7538,7 +7538,7 @@
         <v>1</v>
       </c>
       <c r="C651">
-        <v>0.9674506052203543</v>
+        <v>0.9674506052202938</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7549,7 +7549,7 @@
         <v>1</v>
       </c>
       <c r="C652">
-        <v>0.9575661949193269</v>
+        <v>0.9575661949193572</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7560,7 +7560,7 @@
         <v>1</v>
       </c>
       <c r="C653">
-        <v>0.9655332473815875</v>
+        <v>0.9655332473815295</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7571,7 +7571,7 @@
         <v>1</v>
       </c>
       <c r="C654">
-        <v>0.9594429710119267</v>
+        <v>0.9594429710118947</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7582,7 +7582,7 @@
         <v>1</v>
       </c>
       <c r="C655">
-        <v>0.9588911509613313</v>
+        <v>0.958891150961327</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7593,7 +7593,7 @@
         <v>1</v>
       </c>
       <c r="C656">
-        <v>0.9532007028745567</v>
+        <v>0.9532007028747549</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7601,10 +7601,10 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>1.007976914604767</v>
+        <v>1.007976914604743</v>
       </c>
       <c r="C657">
-        <v>0.9656331394557341</v>
+        <v>0.9656331394557093</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7612,10 +7612,10 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>1.006720109987997</v>
+        <v>1.006720109987988</v>
       </c>
       <c r="C658">
-        <v>0.9600784044668105</v>
+        <v>0.960078404466819</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7623,10 +7623,10 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>1.007470328835998</v>
+        <v>1.007470328835984</v>
       </c>
       <c r="C659">
-        <v>0.9633855197566199</v>
+        <v>0.9633855197565488</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7634,10 +7634,10 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>1.007187184650172</v>
+        <v>1.007187184650224</v>
       </c>
       <c r="C660">
-        <v>0.962128570960603</v>
+        <v>0.9621285709607075</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7645,10 +7645,10 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>1.008109453531497</v>
+        <v>1.008109453531475</v>
       </c>
       <c r="C661">
-        <v>0.9662253945407465</v>
+        <v>0.9662253945406191</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7656,10 +7656,10 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>1.008032512416086</v>
+        <v>1.008032512416032</v>
       </c>
       <c r="C662">
-        <v>0.9658762020980821</v>
+        <v>0.9658762020978591</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7667,10 +7667,10 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>1.009008928525075</v>
+        <v>1.009008928525102</v>
       </c>
       <c r="C663">
-        <v>0.9702485097113569</v>
+        <v>0.9702485097114283</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7678,10 +7678,10 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>1.01066757747681</v>
+        <v>1.010667577476877</v>
       </c>
       <c r="C664">
-        <v>0.9778010981890929</v>
+        <v>0.9778010981893109</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7689,10 +7689,10 @@
         <v>663</v>
       </c>
       <c r="B665">
-        <v>1.011646836115575</v>
+        <v>1.011646836115544</v>
       </c>
       <c r="C665">
-        <v>0.982328716150019</v>
+        <v>0.9823287161499877</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7700,10 +7700,10 @@
         <v>664</v>
       </c>
       <c r="B666">
-        <v>1.012080253288434</v>
+        <v>1.012080253288421</v>
       </c>
       <c r="C666">
-        <v>0.984347718692122</v>
+        <v>0.9843477186920769</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7711,10 +7711,10 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>1.014356276374615</v>
+        <v>1.0143562763746</v>
       </c>
       <c r="C667">
-        <v>0.995182446040433</v>
+        <v>0.9951824460403385</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7722,10 +7722,10 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>1.014554856278841</v>
+        <v>1.014554856278849</v>
       </c>
       <c r="C668">
-        <v>0.9961414548075673</v>
+        <v>0.9961414548076055</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7733,10 +7733,10 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>1.015218858043284</v>
+        <v>1.015218858043294</v>
       </c>
       <c r="C669">
-        <v>0.9993737753184029</v>
+        <v>0.9993737753184242</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7744,7 +7744,7 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>1.016788343571686</v>
+        <v>1.016788343571535</v>
       </c>
       <c r="C670">
         <v>1</v>
@@ -7755,7 +7755,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>1.018550979535286</v>
+        <v>1.018550979535337</v>
       </c>
       <c r="C671">
         <v>1</v>
@@ -7766,7 +7766,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>1.019208327760746</v>
+        <v>1.019208327760923</v>
       </c>
       <c r="C672">
         <v>1</v>
@@ -7777,7 +7777,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>1.023087561394606</v>
+        <v>1.023087561394795</v>
       </c>
       <c r="C673">
         <v>1</v>
